--- a/CTAS-SI-DM-Program_Design(TAXPAYERTRADECLASSIFICATION).xlsx
+++ b/CTAS-SI-DM-Program_Design(TAXPAYERTRADECLASSIFICATION).xlsx
@@ -1,33 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20378"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20379"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\02.IndonesiaTax\5.Working\2200. Design\2210.01. Registration\06. Program Design\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data\Design\Registration\06. Program Design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C34EB4B6-2AF7-4BB7-992B-4D81E1C41B1D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DC4C564-DE0A-46CE-95E3-59D240F5119C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" activeTab="4" xr2:uid="{3A27ACFD-18FD-403C-9414-0BAD9B194128}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" activeTab="2" xr2:uid="{3A27ACFD-18FD-403C-9414-0BAD9B194128}"/>
   </bookViews>
   <sheets>
     <sheet name="Title" sheetId="2" r:id="rId1"/>
     <sheet name="Revision history" sheetId="3" r:id="rId2"/>
     <sheet name="Data Migration Flow" sheetId="4" r:id="rId3"/>
     <sheet name="View" sheetId="6" r:id="rId4"/>
-    <sheet name="Program Design" sheetId="5" r:id="rId5"/>
+    <sheet name="Program Specification" sheetId="5" r:id="rId5"/>
+    <sheet name="Verification item" sheetId="7" r:id="rId6"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId6"/>
+    <externalReference r:id="rId7"/>
   </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" hidden="1">[1]출입자명단!$A$1:$D$1</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'Data Migration Flow'!$A$1:$L$18</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="4">'Program Design'!$A$1:$L$17</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">'Program Specification'!$A$1:$L$17</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="2">'Data Migration Flow'!#REF!</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="4">'Program Design'!#REF!</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="4">'Program Specification'!#REF!</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="121">
   <si>
     <t>Core Tax Administration System</t>
   </si>
@@ -98,10 +99,6 @@
   <si>
     <t>Program Design</t>
     <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>매핑정의서</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>디멘젼정의서</t>
@@ -353,10 +350,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">Defines cities per country, state, region, … </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>INTERFACEDATE</t>
   </si>
   <si>
@@ -366,6 +359,9 @@
     <t>PROCESSING_CODE</t>
   </si>
   <si>
+    <t>DM-RG00X</t>
+  </si>
+  <si>
     <t>Once in the while</t>
   </si>
   <si>
@@ -378,6 +374,9 @@
     <t>DATE</t>
   </si>
   <si>
+    <t>TRADECLASSIFICATION</t>
+  </si>
+  <si>
     <t>VARCHAR2(16)</t>
   </si>
   <si>
@@ -390,22 +389,6 @@
     <t>TAXPAYERTRADECLASSIFICATION</t>
   </si>
   <si>
-    <t>(SELECT 
-wp.RG00_TGL_DAFTAR AS VALIDFROM,
-NULL AS VALIDTO,
-wp.RG00_NPWP TAXPAYER_ID,
-wp.RG00_IDKLU AS TRADECLASSIFICATION_ID,
-NULL AS ISMAINACTIVITY,
-NULL AS ACTIVITYDESCRIPTIONBYTAXPAYER,
-NULL AS REMARKS,
-wp.RG00_NPWP AS NPWP,
-INTERFACEDATE,
-PROCESSING_STATUS,
-PROCESSING_CODE,
-FROM
-rg_wp as wp) AS TAXPAYERTRADECLASSIFICATION_V</t>
-  </si>
-  <si>
     <t>TAXPAYERTRADECLASSIFICATION_V.VALIDFROM</t>
   </si>
   <si>
@@ -493,26 +476,98 @@
     <t>TAXPAYERTRADECLASSIFICATION.PROCESSING_CODE</t>
   </si>
   <si>
-    <t>DM-RG024</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>TAXPAYERTRADECLASSIFICATION_V.INTERFACEDATE</t>
+  </si>
+  <si>
+    <t>TAXPAYERTRADECLASSIFICATION_V.PROCESSING_STATUS</t>
+  </si>
+  <si>
+    <t>TAXPAYERTRADECLASSIFICATION_V.PROCESSING_CODE</t>
+  </si>
+  <si>
+    <t>Program Specification</t>
+  </si>
+  <si>
+    <t>Tax payer classification</t>
+  </si>
+  <si>
+    <t>(SELECT
+   WP.RG00_TGL_DAFTAR                               AS VALIDFROM
+  ,NULL                                             AS VALIDTO
+  ,WP.RG00_NPWP TAXPAYER_ID                         AS TAXPAYER_ID
+  ,WP.RG00_IDKLU                                    AS TRADECLASSIFICATION_ID
+  ,NULL                                             AS ISMAINACTIVITY
+  ,NULL                                             AS ACTIVITYDESCRIPTIONBYTAXPAYER
+  ,NULL                                             AS REMARKS
+  ,FROM_TIMESTAMP(NOW(),'yyyyMMdd hhnnss') 		    AS INTERFACEDATE
+  ,'00'                                             AS PROCESSING_STATUS
+  ,CASE WHEN WP.RG00_TGL_DAFTAR &gt;= QProp.getBizStartDtFormat() AND WP.RG00_TGL_DAFTAR &lt;= QProp.getSetBizEndDt() THEN 'C'
+          WHEN WP.LAST_UPDATE_DATE IS NULL THEN 'C'
+          WHEN WP.LAST_UPDATE_DATE &gt;= QProp.getBizStartDtFormat() AND WP.LAST_UPDATE_DATE &lt;= QProp.getSetBizEndDt() THEN 'U'
+   END                                              AS PROCESSING_CODE
+FROM RG_WP WP
+ WHERE WP.LAST_UPDATE_DATE BETWEEN QProp.getBizStartDtFormat() AND QProp.getSetBizEndDt()
+) TAXPAYERTRADECLASSIFICATION_V</t>
+  </si>
+  <si>
+    <t>Module</t>
+  </si>
+  <si>
+    <t>Business name</t>
+  </si>
+  <si>
+    <t>Transition table</t>
+  </si>
+  <si>
+    <t>CTAS table</t>
+  </si>
+  <si>
+    <t>Verification item</t>
+  </si>
+  <si>
+    <t>Method</t>
+  </si>
+  <si>
+    <t>Remarks</t>
+  </si>
+  <si>
+    <t>Registration</t>
+  </si>
+  <si>
+    <t>Reference</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RF_KLU </t>
+  </si>
+  <si>
+    <t>TradeClassification</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Count </t>
+  </si>
+  <si>
+    <t>Count</t>
+  </si>
+  <si>
+    <t xml:space="preserve">count TaxpayerTradeClassificatio== count RG_WP where RG_WP.id_klu not null </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="29">
+  <fonts count="30">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -588,7 +643,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -596,14 +651,14 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -611,7 +666,7 @@
     <font>
       <b/>
       <sz val="10"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -624,7 +679,7 @@
     <font>
       <b/>
       <sz val="9"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri Light"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="major"/>
@@ -632,21 +687,21 @@
     <font>
       <b/>
       <sz val="9"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri Light"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="major"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri Light"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="major"/>
@@ -654,7 +709,7 @@
     <font>
       <sz val="9"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -663,7 +718,7 @@
       <b/>
       <sz val="9"/>
       <color theme="1"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri Light"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="major"/>
@@ -691,7 +746,7 @@
     <font>
       <sz val="9"/>
       <color rgb="FF000000"/>
-      <name val="맑은 고딕"/>
+      <name val="Calibri Light"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="major"/>
@@ -708,8 +763,17 @@
       <name val="Consolas"/>
       <family val="3"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -761,6 +825,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9D9D9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1127,7 +1197,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="140">
+  <cellXfs count="151">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1427,6 +1497,39 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="29" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1444,14 +1547,31 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1463,22 +1583,53 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="19" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="20" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="21" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="22" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="16" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="17" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="13" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1526,57 +1677,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="13" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="16" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="17" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="19" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="20" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="21" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="22" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
   </cellXfs>
   <cellStyles count="7">
-    <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="표준 2" xfId="1" xr:uid="{86AE7AEB-F2B8-4C71-BF4C-C48E9B491CCB}"/>
     <cellStyle name="표준 46" xfId="5" xr:uid="{B7997EAC-5F9B-4F98-AC2C-10AB17DC26D7}"/>
     <cellStyle name="표준 5" xfId="3" xr:uid="{9603F775-2BDD-4346-A791-A3A6B8EF99CA}"/>
@@ -4437,7 +4540,7 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>Registration</a:t>
+            <a:t>Registaration</a:t>
           </a:r>
           <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1400">
             <a:solidFill>
@@ -4457,8 +4560,8 @@
       <xdr:rowOff>11335</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>757238</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>2858</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>83916</xdr:rowOff>
     </xdr:to>
@@ -4475,8 +4578,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5053013" y="3059335"/>
-          <a:ext cx="2181225" cy="1406081"/>
+          <a:off x="4584383" y="3059335"/>
+          <a:ext cx="2002155" cy="1406081"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartMagneticDisk">
           <a:avLst/>
@@ -4549,7 +4652,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>TaxPayerTradeClassification</a:t>
+            <a:t>TAXPAYERTRADECLASSIFICATION</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1200" baseline="0">
             <a:solidFill>
@@ -4692,7 +4795,19 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>TaxPayerTradeClassification</a:t>
+            <a:t>TAXPAYER</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>TRADECLASSIFICARION</a:t>
           </a:r>
           <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1400">
             <a:solidFill>
@@ -4943,7 +5058,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>TaxPayerTradeClassification</a:t>
+            <a:t>TAXPAYERTRADECLASSIFICATION</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1200" baseline="0">
             <a:solidFill>
@@ -5492,7 +5607,7 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>(RG_WP)</a:t>
+            <a:t>(RF_KLU)</a:t>
           </a:r>
           <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1400">
             <a:solidFill>
@@ -5540,6 +5655,189 @@
           <a:avLst>
             <a:gd name="adj1" fmla="val 50000"/>
           </a:avLst>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>442913</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>100870</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>250508</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>173451</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="73" name="순서도: 자기 디스크 60">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A72B4AD-7DCC-4AAD-9B25-FA3BD393B37D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7758113" y="3148870"/>
+          <a:ext cx="2002155" cy="1406081"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartMagneticDisk">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1200">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>CTAS</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1200" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> Database</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1200" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Registration</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>-TAXPAYER</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>-TRADECLASSIFICATION</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1200" baseline="0">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>953</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>173451</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>712471</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="74" name="연결선: 꺾임 75">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7865478B-AF29-4611-BEF5-54D3D0CB7BC9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="73" idx="3"/>
+          <a:endCxn id="58" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="7106175" y="4033409"/>
+          <a:ext cx="1131474" cy="2174558"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
         </a:prstGeom>
         <a:ln w="25400">
           <a:tailEnd type="triangle"/>
@@ -8174,7 +8472,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -8472,16 +8770,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E8D8FB9-9A99-473B-A6CA-5D038987F9DD}">
   <dimension ref="A1:M21"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <selection activeCell="N11" sqref="N11"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A3" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
   <cols>
     <col min="1" max="3" width="9" style="3"/>
-    <col min="4" max="4" width="4.875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="4.88671875" style="3" customWidth="1"/>
     <col min="5" max="11" width="9" style="3"/>
-    <col min="12" max="12" width="21.75" style="3" customWidth="1"/>
+    <col min="12" max="12" width="21.77734375" style="3" customWidth="1"/>
     <col min="13" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
@@ -8489,23 +8787,23 @@
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
     </row>
-    <row r="2" spans="1:13" ht="31.5">
+    <row r="2" spans="1:13" ht="30">
       <c r="B2" s="2"/>
       <c r="L2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="31.5">
+    <row r="3" spans="1:13" ht="30">
       <c r="A3" s="1"/>
       <c r="B3" s="2"/>
       <c r="L3" s="4"/>
     </row>
-    <row r="4" spans="1:13" ht="31.5">
+    <row r="4" spans="1:13" ht="30">
       <c r="A4" s="1"/>
       <c r="B4" s="2"/>
       <c r="L4" s="4"/>
     </row>
-    <row r="5" spans="1:13" ht="42" thickBot="1">
+    <row r="5" spans="1:13" ht="40.799999999999997" thickBot="1">
       <c r="A5" s="5"/>
       <c r="B5" s="6"/>
       <c r="C5" s="5"/>
@@ -8521,50 +8819,50 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="31.5">
+    <row r="6" spans="1:13" ht="30">
       <c r="A6" s="1"/>
       <c r="B6" s="2"/>
       <c r="L6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="31.5">
+    <row r="7" spans="1:13" ht="30">
       <c r="B7" s="2"/>
       <c r="L7" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" ht="20.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="21">
       <c r="B8" s="2"/>
       <c r="L8" s="95">
         <v>44462</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="17.25">
+    <row r="9" spans="1:13" ht="19.2">
       <c r="A9" s="9"/>
       <c r="B9" s="2"/>
     </row>
-    <row r="10" spans="1:13" ht="17.25">
+    <row r="10" spans="1:13" ht="19.2">
       <c r="A10" s="9"/>
       <c r="B10" s="2"/>
     </row>
-    <row r="11" spans="1:13" ht="17.25">
+    <row r="11" spans="1:13" ht="19.2">
       <c r="A11" s="9"/>
       <c r="B11" s="2"/>
     </row>
-    <row r="12" spans="1:13" ht="20.25">
+    <row r="12" spans="1:13" ht="21">
       <c r="A12" s="9"/>
       <c r="B12" s="2"/>
       <c r="L12" s="10"/>
     </row>
-    <row r="13" spans="1:13" ht="26.25">
+    <row r="13" spans="1:13" ht="25.2">
       <c r="A13" s="9"/>
       <c r="B13" s="2"/>
       <c r="L13" s="11" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="20.25">
+    <row r="14" spans="1:13" ht="21">
       <c r="B14" s="12"/>
       <c r="I14" s="13"/>
       <c r="J14" s="13"/>
@@ -8572,7 +8870,7 @@
       <c r="L14" s="8"/>
       <c r="M14" s="14"/>
     </row>
-    <row r="15" spans="1:13" ht="20.25">
+    <row r="15" spans="1:13" ht="21">
       <c r="B15" s="12"/>
       <c r="I15" s="13"/>
       <c r="J15" s="13"/>
@@ -8580,13 +8878,13 @@
       <c r="L15" s="8"/>
       <c r="M15" s="14"/>
     </row>
-    <row r="16" spans="1:13" ht="20.25">
+    <row r="16" spans="1:13" ht="21">
       <c r="B16" s="12"/>
       <c r="F16" s="13"/>
       <c r="H16" s="13"/>
       <c r="J16" s="8"/>
     </row>
-    <row r="17" spans="1:12" ht="20.25">
+    <row r="17" spans="1:12" ht="21">
       <c r="B17" s="12"/>
       <c r="F17" s="13"/>
       <c r="H17" s="13"/>
@@ -8596,41 +8894,41 @@
       <c r="B18" s="15"/>
       <c r="H18" s="13"/>
     </row>
-    <row r="19" spans="1:12" ht="17.25">
+    <row r="19" spans="1:12" ht="19.2">
       <c r="B19" s="16"/>
       <c r="H19" s="15"/>
     </row>
-    <row r="20" spans="1:12" ht="17.25">
-      <c r="A20" s="97" t="s">
+    <row r="20" spans="1:12" ht="19.2">
+      <c r="A20" s="108" t="s">
         <v>3</v>
       </c>
-      <c r="B20" s="98"/>
-      <c r="C20" s="98"/>
-      <c r="D20" s="98"/>
-      <c r="E20" s="98"/>
-      <c r="F20" s="98"/>
-      <c r="G20" s="98"/>
-      <c r="H20" s="98"/>
-      <c r="I20" s="98"/>
-      <c r="J20" s="98"/>
-      <c r="K20" s="98"/>
-      <c r="L20" s="98"/>
+      <c r="B20" s="109"/>
+      <c r="C20" s="109"/>
+      <c r="D20" s="109"/>
+      <c r="E20" s="109"/>
+      <c r="F20" s="109"/>
+      <c r="G20" s="109"/>
+      <c r="H20" s="109"/>
+      <c r="I20" s="109"/>
+      <c r="J20" s="109"/>
+      <c r="K20" s="109"/>
+      <c r="L20" s="109"/>
     </row>
     <row r="21" spans="1:12">
-      <c r="A21" s="99" t="s">
+      <c r="A21" s="110" t="s">
         <v>4</v>
       </c>
-      <c r="B21" s="99"/>
-      <c r="C21" s="99"/>
-      <c r="D21" s="99"/>
-      <c r="E21" s="99"/>
-      <c r="F21" s="99"/>
-      <c r="G21" s="99"/>
-      <c r="H21" s="99"/>
-      <c r="I21" s="99"/>
-      <c r="J21" s="99"/>
-      <c r="K21" s="99"/>
-      <c r="L21" s="99"/>
+      <c r="B21" s="110"/>
+      <c r="C21" s="110"/>
+      <c r="D21" s="110"/>
+      <c r="E21" s="110"/>
+      <c r="F21" s="110"/>
+      <c r="G21" s="110"/>
+      <c r="H21" s="110"/>
+      <c r="I21" s="110"/>
+      <c r="J21" s="110"/>
+      <c r="K21" s="110"/>
+      <c r="L21" s="110"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -8653,27 +8951,27 @@
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="0.875" customWidth="1"/>
-    <col min="2" max="2" width="13.25" customWidth="1"/>
-    <col min="3" max="3" width="14.75" customWidth="1"/>
+    <col min="1" max="1" width="0.88671875" customWidth="1"/>
+    <col min="2" max="2" width="13.21875" customWidth="1"/>
+    <col min="3" max="3" width="14.77734375" customWidth="1"/>
     <col min="4" max="4" width="63" customWidth="1"/>
-    <col min="5" max="5" width="18.5" customWidth="1"/>
-    <col min="6" max="6" width="17.25" customWidth="1"/>
+    <col min="5" max="5" width="18.44140625" customWidth="1"/>
+    <col min="6" max="6" width="17.21875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:12" ht="6" customHeight="1" thickBot="1"/>
     <row r="2" spans="2:12">
-      <c r="B2" s="100" t="s">
+      <c r="B2" s="111" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="101"/>
-      <c r="D2" s="101"/>
-      <c r="E2" s="101"/>
-      <c r="F2" s="102"/>
-    </row>
-    <row r="3" spans="2:12" ht="17.25" thickBot="1">
+      <c r="C2" s="112"/>
+      <c r="D2" s="112"/>
+      <c r="E2" s="112"/>
+      <c r="F2" s="113"/>
+    </row>
+    <row r="3" spans="2:12" ht="15" thickBot="1">
       <c r="B3" s="25" t="s">
         <v>6</v>
       </c>
@@ -8701,7 +8999,7 @@
         <v>13</v>
       </c>
       <c r="E4" s="23" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F4" s="24"/>
     </row>
@@ -8818,7 +9116,7 @@
       <c r="E20" s="18"/>
       <c r="F20" s="19"/>
     </row>
-    <row r="21" spans="2:6" ht="17.25" thickBot="1">
+    <row r="21" spans="2:6" ht="15" thickBot="1">
       <c r="B21" s="30"/>
       <c r="C21" s="31"/>
       <c r="D21" s="20"/>
@@ -8842,17 +9140,17 @@
   </sheetPr>
   <dimension ref="A1:R77"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A22" zoomScaleSheetLayoutView="120" zoomScalePageLayoutView="55" workbookViewId="0">
-      <selection activeCell="L31" sqref="L31"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScaleSheetLayoutView="120" zoomScalePageLayoutView="55" workbookViewId="0">
+      <selection activeCell="L36" sqref="L36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="5.5" defaultRowHeight="12"/>
+  <sheetFormatPr defaultColWidth="5.44140625" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="9" width="10.625" style="76" customWidth="1"/>
-    <col min="10" max="10" width="10.625" style="91" customWidth="1"/>
-    <col min="11" max="12" width="10.625" style="90" customWidth="1"/>
-    <col min="13" max="20" width="10.625" style="76" customWidth="1"/>
-    <col min="21" max="16384" width="5.5" style="76"/>
+    <col min="1" max="9" width="10.6640625" style="76" customWidth="1"/>
+    <col min="10" max="10" width="10.6640625" style="91" customWidth="1"/>
+    <col min="11" max="12" width="10.6640625" style="90" customWidth="1"/>
+    <col min="13" max="20" width="10.6640625" style="76" customWidth="1"/>
+    <col min="21" max="16384" width="5.44140625" style="76"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" s="72" customFormat="1" ht="15" customHeight="1">
@@ -8874,128 +9172,128 @@
       <c r="A2" s="73"/>
       <c r="B2" s="74"/>
       <c r="C2" s="65"/>
-      <c r="D2" s="110"/>
-      <c r="E2" s="110"/>
-      <c r="F2" s="110"/>
+      <c r="D2" s="116"/>
+      <c r="E2" s="116"/>
+      <c r="F2" s="116"/>
       <c r="G2" s="65"/>
       <c r="H2" s="65"/>
-      <c r="I2" s="109"/>
-      <c r="J2" s="109"/>
-      <c r="K2" s="111"/>
-      <c r="L2" s="111"/>
+      <c r="I2" s="115"/>
+      <c r="J2" s="115"/>
+      <c r="K2" s="117"/>
+      <c r="L2" s="117"/>
       <c r="M2" s="71"/>
     </row>
     <row r="3" spans="1:18" ht="15" customHeight="1">
       <c r="A3" s="73"/>
-      <c r="B3" s="108"/>
-      <c r="C3" s="108"/>
-      <c r="D3" s="108"/>
-      <c r="E3" s="108"/>
-      <c r="F3" s="108"/>
+      <c r="B3" s="118"/>
+      <c r="C3" s="118"/>
+      <c r="D3" s="118"/>
+      <c r="E3" s="118"/>
+      <c r="F3" s="118"/>
       <c r="G3" s="65"/>
       <c r="H3" s="75"/>
-      <c r="I3" s="109"/>
-      <c r="J3" s="109"/>
-      <c r="K3" s="112"/>
-      <c r="L3" s="112"/>
+      <c r="I3" s="115"/>
+      <c r="J3" s="115"/>
+      <c r="K3" s="119"/>
+      <c r="L3" s="119"/>
     </row>
     <row r="4" spans="1:18" ht="15" customHeight="1">
-      <c r="A4" s="109"/>
-      <c r="B4" s="109"/>
-      <c r="C4" s="109"/>
-      <c r="D4" s="109"/>
-      <c r="E4" s="109"/>
-      <c r="F4" s="109"/>
-      <c r="G4" s="109"/>
-      <c r="H4" s="109"/>
-      <c r="I4" s="104"/>
-      <c r="J4" s="104"/>
-      <c r="K4" s="104"/>
-      <c r="L4" s="104"/>
+      <c r="A4" s="115"/>
+      <c r="B4" s="115"/>
+      <c r="C4" s="115"/>
+      <c r="D4" s="115"/>
+      <c r="E4" s="115"/>
+      <c r="F4" s="115"/>
+      <c r="G4" s="115"/>
+      <c r="H4" s="115"/>
+      <c r="I4" s="114"/>
+      <c r="J4" s="114"/>
+      <c r="K4" s="114"/>
+      <c r="L4" s="114"/>
     </row>
     <row r="5" spans="1:18" ht="15" customHeight="1">
-      <c r="A5" s="109"/>
-      <c r="B5" s="109"/>
-      <c r="C5" s="109"/>
-      <c r="D5" s="109"/>
-      <c r="E5" s="109"/>
-      <c r="F5" s="109"/>
+      <c r="A5" s="115"/>
+      <c r="B5" s="115"/>
+      <c r="C5" s="115"/>
+      <c r="D5" s="115"/>
+      <c r="E5" s="115"/>
+      <c r="F5" s="115"/>
       <c r="G5" s="65"/>
       <c r="H5" s="65"/>
-      <c r="I5" s="104"/>
-      <c r="J5" s="104"/>
-      <c r="K5" s="104"/>
-      <c r="L5" s="104"/>
+      <c r="I5" s="114"/>
+      <c r="J5" s="114"/>
+      <c r="K5" s="114"/>
+      <c r="L5" s="114"/>
     </row>
     <row r="6" spans="1:18" ht="15" customHeight="1">
       <c r="A6" s="73"/>
       <c r="B6" s="77"/>
-      <c r="C6" s="106"/>
-      <c r="D6" s="107"/>
-      <c r="E6" s="106"/>
-      <c r="F6" s="107"/>
+      <c r="C6" s="122"/>
+      <c r="D6" s="123"/>
+      <c r="E6" s="122"/>
+      <c r="F6" s="123"/>
       <c r="G6" s="78"/>
       <c r="H6" s="78"/>
-      <c r="I6" s="108"/>
-      <c r="J6" s="108"/>
-      <c r="K6" s="108"/>
-      <c r="L6" s="108"/>
+      <c r="I6" s="118"/>
+      <c r="J6" s="118"/>
+      <c r="K6" s="118"/>
+      <c r="L6" s="118"/>
     </row>
     <row r="7" spans="1:18" ht="15" customHeight="1">
       <c r="A7" s="73"/>
       <c r="B7" s="77"/>
-      <c r="C7" s="106"/>
-      <c r="D7" s="107"/>
-      <c r="E7" s="106"/>
-      <c r="F7" s="107"/>
+      <c r="C7" s="122"/>
+      <c r="D7" s="123"/>
+      <c r="E7" s="122"/>
+      <c r="F7" s="123"/>
       <c r="G7" s="78"/>
       <c r="H7" s="78"/>
-      <c r="I7" s="108"/>
-      <c r="J7" s="108"/>
-      <c r="K7" s="108"/>
-      <c r="L7" s="108"/>
+      <c r="I7" s="118"/>
+      <c r="J7" s="118"/>
+      <c r="K7" s="118"/>
+      <c r="L7" s="118"/>
     </row>
     <row r="8" spans="1:18" ht="15" customHeight="1">
       <c r="A8" s="73"/>
-      <c r="B8" s="103"/>
-      <c r="C8" s="103"/>
-      <c r="D8" s="103"/>
-      <c r="E8" s="103"/>
-      <c r="F8" s="103"/>
-      <c r="G8" s="103"/>
-      <c r="H8" s="103"/>
-      <c r="I8" s="103"/>
-      <c r="J8" s="103"/>
-      <c r="K8" s="103"/>
-      <c r="L8" s="103"/>
+      <c r="B8" s="120"/>
+      <c r="C8" s="120"/>
+      <c r="D8" s="120"/>
+      <c r="E8" s="120"/>
+      <c r="F8" s="120"/>
+      <c r="G8" s="120"/>
+      <c r="H8" s="120"/>
+      <c r="I8" s="120"/>
+      <c r="J8" s="120"/>
+      <c r="K8" s="120"/>
+      <c r="L8" s="120"/>
     </row>
     <row r="9" spans="1:18" ht="15" customHeight="1">
       <c r="A9" s="73"/>
-      <c r="B9" s="103"/>
-      <c r="C9" s="103"/>
-      <c r="D9" s="103"/>
-      <c r="E9" s="103"/>
-      <c r="F9" s="103"/>
-      <c r="G9" s="103"/>
-      <c r="H9" s="103"/>
-      <c r="I9" s="103"/>
-      <c r="J9" s="103"/>
-      <c r="K9" s="103"/>
-      <c r="L9" s="103"/>
+      <c r="B9" s="120"/>
+      <c r="C9" s="120"/>
+      <c r="D9" s="120"/>
+      <c r="E9" s="120"/>
+      <c r="F9" s="120"/>
+      <c r="G9" s="120"/>
+      <c r="H9" s="120"/>
+      <c r="I9" s="120"/>
+      <c r="J9" s="120"/>
+      <c r="K9" s="120"/>
+      <c r="L9" s="120"/>
     </row>
     <row r="10" spans="1:18" ht="15" customHeight="1">
-      <c r="A10" s="104"/>
-      <c r="B10" s="104"/>
-      <c r="C10" s="104"/>
-      <c r="D10" s="104"/>
-      <c r="E10" s="104"/>
-      <c r="F10" s="104"/>
-      <c r="G10" s="105"/>
-      <c r="H10" s="105"/>
-      <c r="I10" s="105"/>
-      <c r="J10" s="105"/>
-      <c r="K10" s="105"/>
-      <c r="L10" s="105"/>
+      <c r="A10" s="114"/>
+      <c r="B10" s="114"/>
+      <c r="C10" s="114"/>
+      <c r="D10" s="114"/>
+      <c r="E10" s="114"/>
+      <c r="F10" s="114"/>
+      <c r="G10" s="121"/>
+      <c r="H10" s="121"/>
+      <c r="I10" s="121"/>
+      <c r="J10" s="121"/>
+      <c r="K10" s="121"/>
+      <c r="L10" s="121"/>
     </row>
     <row r="11" spans="1:18" ht="15" customHeight="1">
       <c r="A11" s="79"/>
@@ -9707,20 +10005,6 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="K4:L5"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="I4:J5"/>
     <mergeCell ref="B8:L8"/>
     <mergeCell ref="B9:L9"/>
     <mergeCell ref="A10:F10"/>
@@ -9733,6 +10017,20 @@
     <mergeCell ref="E7:F7"/>
     <mergeCell ref="I7:J7"/>
     <mergeCell ref="K7:L7"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:J5"/>
+    <mergeCell ref="K4:L5"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="K3:L3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
@@ -9759,7 +10057,7 @@
       <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9774,26 +10072,26 @@
   </sheetPr>
   <dimension ref="A1:R31"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleSheetLayoutView="120" zoomScalePageLayoutView="55" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView showGridLines="0" topLeftCell="A10" zoomScaleSheetLayoutView="120" zoomScalePageLayoutView="55" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8:L8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="5.5" defaultRowHeight="12"/>
+  <sheetFormatPr defaultColWidth="5.44140625" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="1" width="32.125" style="48" customWidth="1"/>
-    <col min="2" max="2" width="56.5" style="48" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.375" style="48" customWidth="1"/>
-    <col min="4" max="4" width="4.875" style="48" customWidth="1"/>
-    <col min="5" max="5" width="5.125" style="48" customWidth="1"/>
-    <col min="6" max="6" width="12.625" style="48" customWidth="1"/>
-    <col min="7" max="7" width="39.125" style="48" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="28.75" style="48" customWidth="1"/>
-    <col min="9" max="9" width="13.125" style="48" customWidth="1"/>
-    <col min="10" max="10" width="5.875" style="63" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.25" style="64" customWidth="1"/>
-    <col min="12" max="12" width="23.875" style="64" customWidth="1"/>
+    <col min="1" max="1" width="32.109375" style="48" customWidth="1"/>
+    <col min="2" max="2" width="56.5546875" style="48" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.33203125" style="48" customWidth="1"/>
+    <col min="4" max="4" width="4.88671875" style="48" customWidth="1"/>
+    <col min="5" max="5" width="5.109375" style="48" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="48" customWidth="1"/>
+    <col min="7" max="7" width="39.109375" style="48" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="28.77734375" style="48" customWidth="1"/>
+    <col min="9" max="9" width="13.109375" style="48" customWidth="1"/>
+    <col min="10" max="10" width="5.88671875" style="63" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.21875" style="64" customWidth="1"/>
+    <col min="12" max="12" width="23.88671875" style="64" customWidth="1"/>
     <col min="13" max="18" width="0" style="48" hidden="1" customWidth="1"/>
-    <col min="19" max="16384" width="5.5" style="48"/>
+    <col min="19" max="16384" width="5.44140625" style="48"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" s="40" customFormat="1" ht="16.5" customHeight="1">
@@ -9809,300 +10107,300 @@
       <c r="J1" s="35"/>
       <c r="K1" s="39"/>
       <c r="L1" s="39" t="s">
+        <v>104</v>
+      </c>
+      <c r="M1" s="39" t="s">
         <v>15</v>
-      </c>
-      <c r="M1" s="39" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:18" s="40" customFormat="1" ht="16.5" customHeight="1">
       <c r="A2" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="42" t="s">
+        <v>62</v>
+      </c>
+      <c r="C2" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="42" t="s">
-        <v>102</v>
-      </c>
-      <c r="C2" s="43" t="s">
+      <c r="D2" s="129" t="s">
+        <v>71</v>
+      </c>
+      <c r="E2" s="129"/>
+      <c r="F2" s="129"/>
+      <c r="G2" s="44" t="s">
         <v>18</v>
-      </c>
-      <c r="D2" s="134" t="s">
-        <v>71</v>
-      </c>
-      <c r="E2" s="134"/>
-      <c r="F2" s="134"/>
-      <c r="G2" s="44" t="s">
-        <v>19</v>
       </c>
       <c r="H2" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="I2" s="128" t="s">
-        <v>20</v>
-      </c>
-      <c r="J2" s="129"/>
-      <c r="K2" s="135" t="s">
+      <c r="I2" s="130" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2" s="131"/>
+      <c r="K2" s="132" t="s">
         <v>71</v>
       </c>
-      <c r="L2" s="136"/>
+      <c r="L2" s="133"/>
       <c r="M2" s="46"/>
     </row>
     <row r="3" spans="1:18" ht="15.75" customHeight="1">
       <c r="A3" s="41" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="134" t="s">
+        <v>105</v>
+      </c>
+      <c r="C3" s="134"/>
+      <c r="D3" s="134"/>
+      <c r="E3" s="134"/>
+      <c r="F3" s="134"/>
+      <c r="G3" s="44" t="s">
         <v>21</v>
-      </c>
-      <c r="B3" s="137" t="s">
-        <v>60</v>
-      </c>
-      <c r="C3" s="137"/>
-      <c r="D3" s="137"/>
-      <c r="E3" s="137"/>
-      <c r="F3" s="137"/>
-      <c r="G3" s="44" t="s">
-        <v>22</v>
       </c>
       <c r="H3" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="128" t="s">
+      <c r="I3" s="130" t="s">
+        <v>22</v>
+      </c>
+      <c r="J3" s="131"/>
+      <c r="K3" s="135" t="s">
+        <v>63</v>
+      </c>
+      <c r="L3" s="136"/>
+    </row>
+    <row r="4" spans="1:18">
+      <c r="A4" s="137" t="s">
         <v>23</v>
       </c>
-      <c r="J3" s="129"/>
-      <c r="K3" s="138" t="s">
-        <v>64</v>
-      </c>
-      <c r="L3" s="139"/>
-    </row>
-    <row r="4" spans="1:18">
-      <c r="A4" s="125" t="s">
+      <c r="B4" s="137" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="125" t="s">
+      <c r="C4" s="128" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="127" t="s">
+      <c r="D4" s="128"/>
+      <c r="E4" s="128"/>
+      <c r="F4" s="128"/>
+      <c r="G4" s="130" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="127"/>
-      <c r="E4" s="127"/>
-      <c r="F4" s="127"/>
-      <c r="G4" s="128" t="s">
+      <c r="H4" s="131"/>
+      <c r="I4" s="124" t="s">
         <v>27</v>
       </c>
-      <c r="H4" s="129"/>
-      <c r="I4" s="130" t="s">
+      <c r="J4" s="125"/>
+      <c r="K4" s="124" t="s">
         <v>28</v>
       </c>
-      <c r="J4" s="131"/>
-      <c r="K4" s="130" t="s">
+      <c r="L4" s="125"/>
+    </row>
+    <row r="5" spans="1:18">
+      <c r="A5" s="138"/>
+      <c r="B5" s="138"/>
+      <c r="C5" s="128" t="s">
         <v>29</v>
       </c>
-      <c r="L4" s="131"/>
-    </row>
-    <row r="5" spans="1:18">
-      <c r="A5" s="126"/>
-      <c r="B5" s="126"/>
-      <c r="C5" s="127" t="s">
+      <c r="D5" s="128"/>
+      <c r="E5" s="128" t="s">
         <v>30</v>
       </c>
-      <c r="D5" s="127"/>
-      <c r="E5" s="127" t="s">
+      <c r="F5" s="128"/>
+      <c r="G5" s="44" t="s">
         <v>31</v>
       </c>
-      <c r="F5" s="127"/>
-      <c r="G5" s="44" t="s">
+      <c r="H5" s="44" t="s">
         <v>32</v>
       </c>
-      <c r="H5" s="44" t="s">
-        <v>33</v>
-      </c>
-      <c r="I5" s="132"/>
-      <c r="J5" s="133"/>
-      <c r="K5" s="132"/>
-      <c r="L5" s="133"/>
+      <c r="I5" s="126"/>
+      <c r="J5" s="127"/>
+      <c r="K5" s="126"/>
+      <c r="L5" s="127"/>
     </row>
     <row r="6" spans="1:18" ht="16.5" customHeight="1">
       <c r="A6" s="41" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="49" t="s">
         <v>34</v>
       </c>
-      <c r="B6" s="49" t="s">
+      <c r="C6" s="143" t="s">
         <v>35</v>
       </c>
-      <c r="C6" s="117" t="s">
-        <v>36</v>
-      </c>
-      <c r="D6" s="118"/>
-      <c r="E6" s="119" t="s">
-        <v>53</v>
-      </c>
-      <c r="F6" s="120"/>
+      <c r="D6" s="144"/>
+      <c r="E6" s="145" t="s">
+        <v>52</v>
+      </c>
+      <c r="F6" s="146"/>
       <c r="G6" s="50"/>
       <c r="H6" s="50"/>
-      <c r="I6" s="121"/>
-      <c r="J6" s="122"/>
-      <c r="K6" s="123"/>
-      <c r="L6" s="124"/>
+      <c r="I6" s="147"/>
+      <c r="J6" s="148"/>
+      <c r="K6" s="149"/>
+      <c r="L6" s="150"/>
     </row>
     <row r="7" spans="1:18" ht="16.5" customHeight="1">
       <c r="A7" s="41" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B7" s="49" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="143" t="s">
         <v>35</v>
       </c>
-      <c r="C7" s="117" t="s">
-        <v>36</v>
-      </c>
-      <c r="D7" s="118"/>
-      <c r="E7" s="117" t="s">
-        <v>54</v>
-      </c>
-      <c r="F7" s="118"/>
+      <c r="D7" s="144"/>
+      <c r="E7" s="143" t="s">
+        <v>53</v>
+      </c>
+      <c r="F7" s="144"/>
       <c r="G7" s="50"/>
       <c r="H7" s="50"/>
-      <c r="I7" s="123"/>
-      <c r="J7" s="124"/>
-      <c r="K7" s="123"/>
-      <c r="L7" s="124"/>
+      <c r="I7" s="149"/>
+      <c r="J7" s="150"/>
+      <c r="K7" s="149"/>
+      <c r="L7" s="150"/>
     </row>
     <row r="8" spans="1:18" ht="111.75" customHeight="1">
       <c r="A8" s="41" t="s">
-        <v>38</v>
-      </c>
-      <c r="B8" s="113" t="s">
-        <v>72</v>
-      </c>
-      <c r="C8" s="113"/>
-      <c r="D8" s="113"/>
-      <c r="E8" s="113"/>
-      <c r="F8" s="113"/>
-      <c r="G8" s="113"/>
-      <c r="H8" s="113"/>
-      <c r="I8" s="113"/>
-      <c r="J8" s="113"/>
-      <c r="K8" s="113"/>
-      <c r="L8" s="113"/>
+        <v>37</v>
+      </c>
+      <c r="B8" s="139" t="s">
+        <v>106</v>
+      </c>
+      <c r="C8" s="139"/>
+      <c r="D8" s="139"/>
+      <c r="E8" s="139"/>
+      <c r="F8" s="139"/>
+      <c r="G8" s="139"/>
+      <c r="H8" s="139"/>
+      <c r="I8" s="139"/>
+      <c r="J8" s="139"/>
+      <c r="K8" s="139"/>
+      <c r="L8" s="139"/>
     </row>
     <row r="9" spans="1:18" ht="111.75" customHeight="1">
       <c r="A9" s="41" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" s="140"/>
+      <c r="C9" s="140"/>
+      <c r="D9" s="140"/>
+      <c r="E9" s="140"/>
+      <c r="F9" s="140"/>
+      <c r="G9" s="140"/>
+      <c r="H9" s="140"/>
+      <c r="I9" s="140"/>
+      <c r="J9" s="140"/>
+      <c r="K9" s="140"/>
+      <c r="L9" s="140"/>
+    </row>
+    <row r="10" spans="1:18" ht="12.6" thickBot="1">
+      <c r="A10" s="141" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" s="141"/>
+      <c r="C10" s="141"/>
+      <c r="D10" s="141"/>
+      <c r="E10" s="141"/>
+      <c r="F10" s="141"/>
+      <c r="G10" s="142" t="s">
+        <v>36</v>
+      </c>
+      <c r="H10" s="142"/>
+      <c r="I10" s="142"/>
+      <c r="J10" s="142"/>
+      <c r="K10" s="142"/>
+      <c r="L10" s="142"/>
+    </row>
+    <row r="11" spans="1:18" ht="39.6">
+      <c r="A11" s="51" t="s">
         <v>39</v>
       </c>
-      <c r="B9" s="114"/>
-      <c r="C9" s="114"/>
-      <c r="D9" s="114"/>
-      <c r="E9" s="114"/>
-      <c r="F9" s="114"/>
-      <c r="G9" s="114"/>
-      <c r="H9" s="114"/>
-      <c r="I9" s="114"/>
-      <c r="J9" s="114"/>
-      <c r="K9" s="114"/>
-      <c r="L9" s="114"/>
-    </row>
-    <row r="10" spans="1:18" ht="12.75" thickBot="1">
-      <c r="A10" s="115" t="s">
-        <v>34</v>
-      </c>
-      <c r="B10" s="115"/>
-      <c r="C10" s="115"/>
-      <c r="D10" s="115"/>
-      <c r="E10" s="115"/>
-      <c r="F10" s="115"/>
-      <c r="G10" s="116" t="s">
-        <v>37</v>
-      </c>
-      <c r="H10" s="116"/>
-      <c r="I10" s="116"/>
-      <c r="J10" s="116"/>
-      <c r="K10" s="116"/>
-      <c r="L10" s="116"/>
-    </row>
-    <row r="11" spans="1:18" ht="37.5">
-      <c r="A11" s="51" t="s">
+      <c r="B11" s="51" t="s">
         <v>40</v>
       </c>
-      <c r="B11" s="51" t="s">
+      <c r="C11" s="51" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="51" t="s">
         <v>41</v>
       </c>
-      <c r="C11" s="51" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" s="51" t="s">
+      <c r="E11" s="51" t="s">
         <v>42</v>
       </c>
-      <c r="E11" s="51" t="s">
+      <c r="F11" s="51" t="s">
         <v>43</v>
       </c>
-      <c r="F11" s="51" t="s">
+      <c r="G11" s="52" t="s">
+        <v>40</v>
+      </c>
+      <c r="H11" s="52" t="s">
+        <v>39</v>
+      </c>
+      <c r="I11" s="52" t="s">
+        <v>23</v>
+      </c>
+      <c r="J11" s="52" t="s">
+        <v>41</v>
+      </c>
+      <c r="K11" s="52" t="s">
+        <v>42</v>
+      </c>
+      <c r="L11" s="52" t="s">
         <v>44</v>
       </c>
-      <c r="G11" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="H11" s="52" t="s">
-        <v>40</v>
-      </c>
-      <c r="I11" s="52" t="s">
-        <v>24</v>
-      </c>
-      <c r="J11" s="52" t="s">
-        <v>42</v>
-      </c>
-      <c r="K11" s="52" t="s">
-        <v>43</v>
-      </c>
-      <c r="L11" s="52" t="s">
+      <c r="M11" s="53" t="s">
         <v>45</v>
       </c>
-      <c r="M11" s="53" t="s">
+      <c r="N11" s="53" t="s">
         <v>46</v>
       </c>
-      <c r="N11" s="53" t="s">
+      <c r="O11" s="54" t="s">
         <v>47</v>
       </c>
-      <c r="O11" s="54" t="s">
+      <c r="P11" s="54" t="s">
         <v>48</v>
       </c>
-      <c r="P11" s="54" t="s">
+      <c r="Q11" s="54" t="s">
         <v>49</v>
       </c>
-      <c r="Q11" s="54" t="s">
+      <c r="R11" s="54" t="s">
         <v>50</v>
       </c>
-      <c r="R11" s="54" t="s">
+    </row>
+    <row r="12" spans="1:18" ht="13.8">
+      <c r="A12" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="B12" s="92" t="s">
+        <v>58</v>
+      </c>
+      <c r="C12" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="D12" s="56" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="12" spans="1:18" ht="13.5">
-      <c r="A12" s="32" t="s">
-        <v>55</v>
-      </c>
-      <c r="B12" s="92" t="s">
-        <v>59</v>
-      </c>
-      <c r="C12" s="32" t="s">
-        <v>58</v>
-      </c>
-      <c r="D12" s="56" t="s">
-        <v>52</v>
-      </c>
       <c r="E12" s="93" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F12" s="57"/>
       <c r="G12" s="92" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H12" s="55" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I12" s="32" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J12" s="56" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K12" s="93" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L12" s="58"/>
       <c r="M12" s="59"/>
@@ -10112,33 +10410,33 @@
       <c r="Q12" s="61"/>
       <c r="R12" s="61"/>
     </row>
-    <row r="13" spans="1:18" ht="13.5">
+    <row r="13" spans="1:18" ht="13.8">
       <c r="A13" s="92" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B13" s="92" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C13" s="33" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D13" s="56"/>
       <c r="E13" s="94" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F13" s="57"/>
       <c r="G13" s="92" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H13" s="92" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I13" s="33" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J13" s="56"/>
       <c r="K13" s="94" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L13" s="58"/>
       <c r="M13" s="59"/>
@@ -10148,27 +10446,27 @@
       <c r="Q13" s="61"/>
       <c r="R13" s="61"/>
     </row>
-    <row r="14" spans="1:18" ht="13.5">
+    <row r="14" spans="1:18" ht="13.8">
       <c r="A14" s="92" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B14" s="92" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C14" s="33" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D14" s="56"/>
       <c r="E14" s="94"/>
       <c r="F14" s="57"/>
       <c r="G14" s="92" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H14" s="92" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I14" s="33" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J14" s="56"/>
       <c r="K14" s="94"/>
@@ -10180,27 +10478,27 @@
       <c r="Q14" s="61"/>
       <c r="R14" s="61"/>
     </row>
-    <row r="15" spans="1:18" ht="13.5">
+    <row r="15" spans="1:18" ht="13.8">
       <c r="A15" s="92" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B15" s="92" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C15" s="33" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D15" s="56"/>
       <c r="E15" s="94"/>
       <c r="F15" s="57"/>
       <c r="G15" s="92" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H15" s="92" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I15" s="33" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J15" s="56"/>
       <c r="K15" s="94"/>
@@ -10212,27 +10510,27 @@
       <c r="Q15" s="61"/>
       <c r="R15" s="61"/>
     </row>
-    <row r="16" spans="1:18" ht="13.5">
+    <row r="16" spans="1:18" ht="13.8">
       <c r="A16" s="92" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B16" s="92" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C16" s="33" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D16" s="56"/>
       <c r="E16" s="94"/>
       <c r="F16" s="57"/>
       <c r="G16" s="92" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H16" s="92" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I16" s="33" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J16" s="56"/>
       <c r="K16" s="94"/>
@@ -10244,27 +10542,27 @@
       <c r="Q16" s="61"/>
       <c r="R16" s="61"/>
     </row>
-    <row r="17" spans="1:18" ht="13.5">
+    <row r="17" spans="1:18" ht="13.8">
       <c r="A17" s="92" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B17" s="92" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C17" s="33" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D17" s="56"/>
       <c r="E17" s="94"/>
       <c r="F17" s="57"/>
       <c r="G17" s="92" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H17" s="92" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I17" s="33" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J17" s="56"/>
       <c r="K17" s="94"/>
@@ -10276,87 +10574,91 @@
       <c r="Q17" s="61"/>
       <c r="R17" s="61"/>
     </row>
-    <row r="18" spans="1:18" ht="13.5">
+    <row r="18" spans="1:18" ht="13.8">
       <c r="A18" s="92" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B18" s="92" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C18" s="92" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D18" s="92"/>
       <c r="E18" s="92"/>
       <c r="F18" s="92"/>
       <c r="G18" s="92" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H18" s="92" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I18" s="92" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J18" s="92"/>
       <c r="K18" s="92"/>
       <c r="L18" s="92"/>
     </row>
-    <row r="19" spans="1:18" ht="13.5">
+    <row r="19" spans="1:18" ht="13.8">
       <c r="A19" s="92" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B19" s="92" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C19" s="92" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D19" s="92"/>
       <c r="E19" s="92"/>
       <c r="F19" s="92"/>
       <c r="G19" s="92" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H19" s="92" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I19" s="92" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J19" s="92"/>
       <c r="K19" s="92"/>
       <c r="L19" s="92"/>
     </row>
-    <row r="20" spans="1:18" ht="13.5">
+    <row r="20" spans="1:18" ht="13.8">
       <c r="A20" s="92" t="s">
+        <v>85</v>
+      </c>
+      <c r="B20" s="92" t="s">
+        <v>79</v>
+      </c>
+      <c r="C20" s="33" t="s">
         <v>86</v>
-      </c>
-      <c r="B20" s="92" t="s">
-        <v>80</v>
-      </c>
-      <c r="C20" s="33" t="s">
-        <v>87</v>
       </c>
       <c r="D20" s="92"/>
       <c r="E20" s="92"/>
       <c r="F20" s="92"/>
       <c r="G20" s="92" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H20" s="92" t="s">
+        <v>85</v>
+      </c>
+      <c r="I20" s="92" t="s">
         <v>86</v>
-      </c>
-      <c r="I20" s="92" t="s">
-        <v>87</v>
       </c>
       <c r="J20" s="92"/>
       <c r="K20" s="92"/>
       <c r="L20" s="92"/>
     </row>
-    <row r="21" spans="1:18" ht="13.5">
-      <c r="A21" s="92"/>
-      <c r="B21" s="92"/>
+    <row r="21" spans="1:18" ht="13.8">
+      <c r="A21" s="92" t="s">
+        <v>59</v>
+      </c>
+      <c r="B21" s="92" t="s">
+        <v>101</v>
+      </c>
       <c r="C21" s="92" t="s">
         <v>68</v>
       </c>
@@ -10364,10 +10666,10 @@
       <c r="E21" s="92"/>
       <c r="F21" s="92"/>
       <c r="G21" s="92" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H21" s="92" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I21" s="92" t="s">
         <v>68</v>
@@ -10376,9 +10678,13 @@
       <c r="K21" s="92"/>
       <c r="L21" s="92"/>
     </row>
-    <row r="22" spans="1:18" ht="13.5">
-      <c r="A22" s="92"/>
-      <c r="B22" s="92"/>
+    <row r="22" spans="1:18" ht="13.8">
+      <c r="A22" s="92" t="s">
+        <v>60</v>
+      </c>
+      <c r="B22" s="92" t="s">
+        <v>102</v>
+      </c>
       <c r="C22" s="92" t="s">
         <v>69</v>
       </c>
@@ -10386,10 +10692,10 @@
       <c r="E22" s="92"/>
       <c r="F22" s="92"/>
       <c r="G22" s="92" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H22" s="92" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="I22" s="92" t="s">
         <v>69</v>
@@ -10398,9 +10704,13 @@
       <c r="K22" s="92"/>
       <c r="L22" s="92"/>
     </row>
-    <row r="23" spans="1:18" ht="13.5">
-      <c r="A23" s="92"/>
-      <c r="B23" s="92"/>
+    <row r="23" spans="1:18" ht="13.8">
+      <c r="A23" s="92" t="s">
+        <v>61</v>
+      </c>
+      <c r="B23" s="92" t="s">
+        <v>103</v>
+      </c>
       <c r="C23" s="92" t="s">
         <v>70</v>
       </c>
@@ -10408,10 +10718,10 @@
       <c r="E23" s="92"/>
       <c r="F23" s="92"/>
       <c r="G23" s="92" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H23" s="92" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I23" s="92" t="s">
         <v>70</v>
@@ -10420,7 +10730,7 @@
       <c r="K23" s="92"/>
       <c r="L23" s="92"/>
     </row>
-    <row r="24" spans="1:18" ht="13.5">
+    <row r="24" spans="1:18" ht="13.8">
       <c r="A24" s="92"/>
       <c r="B24" s="92"/>
       <c r="C24" s="92"/>
@@ -10434,7 +10744,7 @@
       <c r="K24" s="92"/>
       <c r="L24" s="92"/>
     </row>
-    <row r="25" spans="1:18" ht="13.5">
+    <row r="25" spans="1:18" ht="13.8">
       <c r="A25" s="92"/>
       <c r="B25" s="92"/>
       <c r="C25" s="92"/>
@@ -10448,7 +10758,7 @@
       <c r="K25" s="92"/>
       <c r="L25" s="92"/>
     </row>
-    <row r="26" spans="1:18" ht="13.5">
+    <row r="26" spans="1:18" ht="13.8">
       <c r="A26" s="92"/>
       <c r="B26" s="92"/>
       <c r="C26" s="92"/>
@@ -10462,7 +10772,7 @@
       <c r="K26" s="92"/>
       <c r="L26" s="92"/>
     </row>
-    <row r="27" spans="1:18" ht="13.5">
+    <row r="27" spans="1:18" ht="13.8">
       <c r="A27" s="92"/>
       <c r="B27" s="92"/>
       <c r="C27" s="92"/>
@@ -10476,7 +10786,7 @@
       <c r="K27" s="92"/>
       <c r="L27" s="92"/>
     </row>
-    <row r="28" spans="1:18" ht="13.5">
+    <row r="28" spans="1:18" ht="13.8">
       <c r="A28" s="92"/>
       <c r="B28" s="92"/>
       <c r="C28" s="92"/>
@@ -10490,7 +10800,7 @@
       <c r="K28" s="92"/>
       <c r="L28" s="92"/>
     </row>
-    <row r="29" spans="1:18" ht="13.5">
+    <row r="29" spans="1:18" ht="13.8">
       <c r="A29" s="92"/>
       <c r="B29" s="92"/>
       <c r="C29" s="92"/>
@@ -10504,7 +10814,7 @@
       <c r="K29" s="92"/>
       <c r="L29" s="92"/>
     </row>
-    <row r="30" spans="1:18" ht="13.5">
+    <row r="30" spans="1:18" ht="13.8">
       <c r="A30" s="92"/>
       <c r="B30" s="92"/>
       <c r="C30" s="92"/>
@@ -10518,7 +10828,7 @@
       <c r="K30" s="92"/>
       <c r="L30" s="92"/>
     </row>
-    <row r="31" spans="1:18" ht="13.5">
+    <row r="31" spans="1:18" ht="13.8">
       <c r="A31" s="92"/>
       <c r="B31" s="92"/>
       <c r="C31" s="92"/>
@@ -10534,20 +10844,6 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="K4:L5"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="I4:J5"/>
     <mergeCell ref="B8:L8"/>
     <mergeCell ref="B9:L9"/>
     <mergeCell ref="A10:F10"/>
@@ -10560,6 +10856,20 @@
     <mergeCell ref="E7:F7"/>
     <mergeCell ref="I7:J7"/>
     <mergeCell ref="K7:L7"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:J5"/>
+    <mergeCell ref="K4:L5"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="K3:L3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
@@ -10576,4 +10886,204 @@
   <drawing r:id="rId2"/>
   <legacyDrawingHF r:id="rId3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF2A1437-1857-4626-81A1-33530EF0A9DA}">
+  <dimension ref="A1:G18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I18" sqref="I17:I18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="7" width="22.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="15" thickBot="1"/>
+    <row r="2" spans="1:7">
+      <c r="A2" s="97" t="s">
+        <v>107</v>
+      </c>
+      <c r="B2" s="98" t="s">
+        <v>108</v>
+      </c>
+      <c r="C2" s="98" t="s">
+        <v>109</v>
+      </c>
+      <c r="D2" s="98" t="s">
+        <v>110</v>
+      </c>
+      <c r="E2" s="98" t="s">
+        <v>111</v>
+      </c>
+      <c r="F2" s="98" t="s">
+        <v>112</v>
+      </c>
+      <c r="G2" s="99" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="55.2">
+      <c r="A3" s="100" t="s">
+        <v>114</v>
+      </c>
+      <c r="B3" s="101" t="s">
+        <v>115</v>
+      </c>
+      <c r="C3" s="101" t="s">
+        <v>116</v>
+      </c>
+      <c r="D3" s="101" t="s">
+        <v>117</v>
+      </c>
+      <c r="E3" s="101" t="s">
+        <v>118</v>
+      </c>
+      <c r="F3" s="101" t="s">
+        <v>119</v>
+      </c>
+      <c r="G3" s="102" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="100"/>
+      <c r="B4" s="101"/>
+      <c r="C4" s="101"/>
+      <c r="D4" s="101"/>
+      <c r="E4" s="101"/>
+      <c r="F4" s="101"/>
+      <c r="G4" s="102"/>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="100"/>
+      <c r="B5" s="101"/>
+      <c r="C5" s="101"/>
+      <c r="D5" s="101"/>
+      <c r="E5" s="101"/>
+      <c r="F5" s="101"/>
+      <c r="G5" s="102"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="103"/>
+      <c r="B6" s="92"/>
+      <c r="C6" s="92"/>
+      <c r="D6" s="92"/>
+      <c r="E6" s="101"/>
+      <c r="F6" s="92"/>
+      <c r="G6" s="102"/>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="103"/>
+      <c r="B7" s="92"/>
+      <c r="C7" s="92"/>
+      <c r="D7" s="101"/>
+      <c r="E7" s="101"/>
+      <c r="F7" s="101"/>
+      <c r="G7" s="102"/>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="103"/>
+      <c r="B8" s="92"/>
+      <c r="C8" s="92"/>
+      <c r="D8" s="92"/>
+      <c r="E8" s="92"/>
+      <c r="F8" s="92"/>
+      <c r="G8" s="104"/>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="103"/>
+      <c r="B9" s="92"/>
+      <c r="C9" s="92"/>
+      <c r="D9" s="92"/>
+      <c r="E9" s="92"/>
+      <c r="F9" s="92"/>
+      <c r="G9" s="104"/>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="103"/>
+      <c r="B10" s="92"/>
+      <c r="C10" s="92"/>
+      <c r="D10" s="92"/>
+      <c r="E10" s="92"/>
+      <c r="F10" s="92"/>
+      <c r="G10" s="104"/>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="103"/>
+      <c r="B11" s="92"/>
+      <c r="C11" s="92"/>
+      <c r="D11" s="92"/>
+      <c r="E11" s="92"/>
+      <c r="F11" s="92"/>
+      <c r="G11" s="104"/>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="103"/>
+      <c r="B12" s="92"/>
+      <c r="C12" s="92"/>
+      <c r="D12" s="92"/>
+      <c r="E12" s="92"/>
+      <c r="F12" s="92"/>
+      <c r="G12" s="104"/>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="103"/>
+      <c r="B13" s="92"/>
+      <c r="C13" s="92"/>
+      <c r="D13" s="92"/>
+      <c r="E13" s="92"/>
+      <c r="F13" s="92"/>
+      <c r="G13" s="104"/>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="103"/>
+      <c r="B14" s="92"/>
+      <c r="C14" s="92"/>
+      <c r="D14" s="92"/>
+      <c r="E14" s="92"/>
+      <c r="F14" s="92"/>
+      <c r="G14" s="104"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="103"/>
+      <c r="B15" s="92"/>
+      <c r="C15" s="92"/>
+      <c r="D15" s="92"/>
+      <c r="E15" s="92"/>
+      <c r="F15" s="92"/>
+      <c r="G15" s="104"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="103"/>
+      <c r="B16" s="92"/>
+      <c r="C16" s="92"/>
+      <c r="D16" s="92"/>
+      <c r="E16" s="92"/>
+      <c r="F16" s="92"/>
+      <c r="G16" s="104"/>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="103"/>
+      <c r="B17" s="92"/>
+      <c r="C17" s="92"/>
+      <c r="D17" s="92"/>
+      <c r="E17" s="92"/>
+      <c r="F17" s="92"/>
+      <c r="G17" s="104"/>
+    </row>
+    <row r="18" spans="1:7" ht="15" thickBot="1">
+      <c r="A18" s="105"/>
+      <c r="B18" s="106"/>
+      <c r="C18" s="106"/>
+      <c r="D18" s="106"/>
+      <c r="E18" s="106"/>
+      <c r="F18" s="106"/>
+      <c r="G18" s="107"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/CTAS-SI-DM-Program_Design(TAXPAYERTRADECLASSIFICATION).xlsx
+++ b/CTAS-SI-DM-Program_Design(TAXPAYERTRADECLASSIFICATION).xlsx
@@ -1,34 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20379"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20378"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data\Design\Registration\06. Program Design\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\02.IndonesiaTax\5.Working\2200. Design\2210.01. Registration\06. Program Design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DC4C564-DE0A-46CE-95E3-59D240F5119C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C34EB4B6-2AF7-4BB7-992B-4D81E1C41B1D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" activeTab="2" xr2:uid="{3A27ACFD-18FD-403C-9414-0BAD9B194128}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" activeTab="4" xr2:uid="{3A27ACFD-18FD-403C-9414-0BAD9B194128}"/>
   </bookViews>
   <sheets>
     <sheet name="Title" sheetId="2" r:id="rId1"/>
     <sheet name="Revision history" sheetId="3" r:id="rId2"/>
     <sheet name="Data Migration Flow" sheetId="4" r:id="rId3"/>
     <sheet name="View" sheetId="6" r:id="rId4"/>
-    <sheet name="Program Specification" sheetId="5" r:id="rId5"/>
-    <sheet name="Verification item" sheetId="7" r:id="rId6"/>
+    <sheet name="Program Design" sheetId="5" r:id="rId5"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId7"/>
+    <externalReference r:id="rId6"/>
   </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" hidden="1">[1]출입자명단!$A$1:$D$1</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'Data Migration Flow'!$A$1:$L$18</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="4">'Program Specification'!$A$1:$L$17</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">'Program Design'!$A$1:$L$17</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="2">'Data Migration Flow'!#REF!</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="4">'Program Specification'!#REF!</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="4">'Program Design'!#REF!</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="103">
   <si>
     <t>Core Tax Administration System</t>
   </si>
@@ -99,6 +98,10 @@
   <si>
     <t>Program Design</t>
     <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>매핑정의서</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>디멘젼정의서</t>
@@ -350,6 +353,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t xml:space="preserve">Defines cities per country, state, region, … </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>INTERFACEDATE</t>
   </si>
   <si>
@@ -357,9 +364,6 @@
   </si>
   <si>
     <t>PROCESSING_CODE</t>
-  </si>
-  <si>
-    <t>DM-RG00X</t>
   </si>
   <si>
     <t>Once in the while</t>
@@ -374,9 +378,6 @@
     <t>DATE</t>
   </si>
   <si>
-    <t>TRADECLASSIFICATION</t>
-  </si>
-  <si>
     <t>VARCHAR2(16)</t>
   </si>
   <si>
@@ -387,6 +388,22 @@
   </si>
   <si>
     <t>TAXPAYERTRADECLASSIFICATION</t>
+  </si>
+  <si>
+    <t>(SELECT 
+wp.RG00_TGL_DAFTAR AS VALIDFROM,
+NULL AS VALIDTO,
+wp.RG00_NPWP TAXPAYER_ID,
+wp.RG00_IDKLU AS TRADECLASSIFICATION_ID,
+NULL AS ISMAINACTIVITY,
+NULL AS ACTIVITYDESCRIPTIONBYTAXPAYER,
+NULL AS REMARKS,
+wp.RG00_NPWP AS NPWP,
+INTERFACEDATE,
+PROCESSING_STATUS,
+PROCESSING_CODE,
+FROM
+rg_wp as wp) AS TAXPAYERTRADECLASSIFICATION_V</t>
   </si>
   <si>
     <t>TAXPAYERTRADECLASSIFICATION_V.VALIDFROM</t>
@@ -476,98 +493,26 @@
     <t>TAXPAYERTRADECLASSIFICATION.PROCESSING_CODE</t>
   </si>
   <si>
-    <t>TAXPAYERTRADECLASSIFICATION_V.INTERFACEDATE</t>
-  </si>
-  <si>
-    <t>TAXPAYERTRADECLASSIFICATION_V.PROCESSING_STATUS</t>
-  </si>
-  <si>
-    <t>TAXPAYERTRADECLASSIFICATION_V.PROCESSING_CODE</t>
-  </si>
-  <si>
-    <t>Program Specification</t>
-  </si>
-  <si>
-    <t>Tax payer classification</t>
-  </si>
-  <si>
-    <t>(SELECT
-   WP.RG00_TGL_DAFTAR                               AS VALIDFROM
-  ,NULL                                             AS VALIDTO
-  ,WP.RG00_NPWP TAXPAYER_ID                         AS TAXPAYER_ID
-  ,WP.RG00_IDKLU                                    AS TRADECLASSIFICATION_ID
-  ,NULL                                             AS ISMAINACTIVITY
-  ,NULL                                             AS ACTIVITYDESCRIPTIONBYTAXPAYER
-  ,NULL                                             AS REMARKS
-  ,FROM_TIMESTAMP(NOW(),'yyyyMMdd hhnnss') 		    AS INTERFACEDATE
-  ,'00'                                             AS PROCESSING_STATUS
-  ,CASE WHEN WP.RG00_TGL_DAFTAR &gt;= QProp.getBizStartDtFormat() AND WP.RG00_TGL_DAFTAR &lt;= QProp.getSetBizEndDt() THEN 'C'
-          WHEN WP.LAST_UPDATE_DATE IS NULL THEN 'C'
-          WHEN WP.LAST_UPDATE_DATE &gt;= QProp.getBizStartDtFormat() AND WP.LAST_UPDATE_DATE &lt;= QProp.getSetBizEndDt() THEN 'U'
-   END                                              AS PROCESSING_CODE
-FROM RG_WP WP
- WHERE WP.LAST_UPDATE_DATE BETWEEN QProp.getBizStartDtFormat() AND QProp.getSetBizEndDt()
-) TAXPAYERTRADECLASSIFICATION_V</t>
-  </si>
-  <si>
-    <t>Module</t>
-  </si>
-  <si>
-    <t>Business name</t>
-  </si>
-  <si>
-    <t>Transition table</t>
-  </si>
-  <si>
-    <t>CTAS table</t>
-  </si>
-  <si>
-    <t>Verification item</t>
-  </si>
-  <si>
-    <t>Method</t>
-  </si>
-  <si>
-    <t>Remarks</t>
-  </si>
-  <si>
-    <t>Registration</t>
-  </si>
-  <si>
-    <t>Reference</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RF_KLU </t>
-  </si>
-  <si>
-    <t>TradeClassification</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Count </t>
-  </si>
-  <si>
-    <t>Count</t>
-  </si>
-  <si>
-    <t xml:space="preserve">count TaxpayerTradeClassificatio== count RG_WP where RG_WP.id_klu not null </t>
+    <t>DM-RG024</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="30">
+  <fonts count="29">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -643,7 +588,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -651,14 +596,14 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -666,7 +611,7 @@
     <font>
       <b/>
       <sz val="10"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -679,7 +624,7 @@
     <font>
       <b/>
       <sz val="9"/>
-      <name val="Calibri Light"/>
+      <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="major"/>
@@ -687,21 +632,21 @@
     <font>
       <b/>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri Light"/>
+      <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="major"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="Calibri Light"/>
+      <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="major"/>
@@ -709,7 +654,7 @@
     <font>
       <sz val="9"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
@@ -718,7 +663,7 @@
       <b/>
       <sz val="9"/>
       <color theme="1"/>
-      <name val="Calibri Light"/>
+      <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="major"/>
@@ -746,7 +691,7 @@
     <font>
       <sz val="9"/>
       <color rgb="FF000000"/>
-      <name val="Calibri Light"/>
+      <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
       <scheme val="major"/>
@@ -763,17 +708,8 @@
       <name val="Consolas"/>
       <family val="3"/>
     </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="3"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="11">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -825,12 +761,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFD9D9D9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1197,7 +1127,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="151">
+  <cellXfs count="140">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1497,39 +1427,6 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1548,41 +1445,102 @@
     <xf numFmtId="0" fontId="12" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="17" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="13" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="16" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="17" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="3" borderId="19" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1595,17 +1553,8 @@
     <xf numFmtId="0" fontId="17" fillId="3" borderId="22" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="16" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="17" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1625,61 +1574,9 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="13" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="17" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="17" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
   </cellXfs>
   <cellStyles count="7">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
     <cellStyle name="표준 2" xfId="1" xr:uid="{86AE7AEB-F2B8-4C71-BF4C-C48E9B491CCB}"/>
     <cellStyle name="표준 46" xfId="5" xr:uid="{B7997EAC-5F9B-4F98-AC2C-10AB17DC26D7}"/>
     <cellStyle name="표준 5" xfId="3" xr:uid="{9603F775-2BDD-4346-A791-A3A6B8EF99CA}"/>
@@ -4540,7 +4437,7 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>Registaration</a:t>
+            <a:t>Registration</a:t>
           </a:r>
           <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1400">
             <a:solidFill>
@@ -4560,8 +4457,8 @@
       <xdr:rowOff>11335</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>2858</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>757238</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>83916</xdr:rowOff>
     </xdr:to>
@@ -4578,8 +4475,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4584383" y="3059335"/>
-          <a:ext cx="2002155" cy="1406081"/>
+          <a:off x="5053013" y="3059335"/>
+          <a:ext cx="2181225" cy="1406081"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartMagneticDisk">
           <a:avLst/>
@@ -4652,7 +4549,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>TAXPAYERTRADECLASSIFICATION</a:t>
+            <a:t>TaxPayerTradeClassification</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1200" baseline="0">
             <a:solidFill>
@@ -4795,19 +4692,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>TAXPAYER</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>TRADECLASSIFICARION</a:t>
+            <a:t>TaxPayerTradeClassification</a:t>
           </a:r>
           <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1400">
             <a:solidFill>
@@ -5058,7 +4943,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>TAXPAYERTRADECLASSIFICATION</a:t>
+            <a:t>TaxPayerTradeClassification</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1200" baseline="0">
             <a:solidFill>
@@ -5607,7 +5492,7 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>(RF_KLU)</a:t>
+            <a:t>(RG_WP)</a:t>
           </a:r>
           <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1400">
             <a:solidFill>
@@ -5655,189 +5540,6 @@
           <a:avLst>
             <a:gd name="adj1" fmla="val 50000"/>
           </a:avLst>
-        </a:prstGeom>
-        <a:ln w="25400">
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>442913</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>100870</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>250508</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>173451</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="73" name="순서도: 자기 디스크 60">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A72B4AD-7DCC-4AAD-9B25-FA3BD393B37D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7758113" y="3148870"/>
-          <a:ext cx="2002155" cy="1406081"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartMagneticDisk">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent1">
-            <a:lumMod val="20000"/>
-            <a:lumOff val="80000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1200">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>CTAS</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1200" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t> Database</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1200" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>Registration</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>-TAXPAYER</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>-TRADECLASSIFICATION</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1200" baseline="0">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>953</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>173451</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>712471</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="74" name="연결선: 꺾임 75">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7865478B-AF29-4611-BEF5-54D3D0CB7BC9}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="73" idx="3"/>
-          <a:endCxn id="58" idx="3"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="5400000">
-          <a:off x="7106175" y="4033409"/>
-          <a:ext cx="1131474" cy="2174558"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector2">
-          <a:avLst/>
         </a:prstGeom>
         <a:ln w="25400">
           <a:tailEnd type="triangle"/>
@@ -8472,7 +8174,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -8770,16 +8472,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E8D8FB9-9A99-473B-A6CA-5D038987F9DD}">
   <dimension ref="A1:M21"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A3" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
+      <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="3" width="9" style="3"/>
-    <col min="4" max="4" width="4.88671875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="4.875" style="3" customWidth="1"/>
     <col min="5" max="11" width="9" style="3"/>
-    <col min="12" max="12" width="21.77734375" style="3" customWidth="1"/>
+    <col min="12" max="12" width="21.75" style="3" customWidth="1"/>
     <col min="13" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
@@ -8787,23 +8489,23 @@
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
     </row>
-    <row r="2" spans="1:13" ht="30">
+    <row r="2" spans="1:13" ht="31.5">
       <c r="B2" s="2"/>
       <c r="L2" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="30">
+    <row r="3" spans="1:13" ht="31.5">
       <c r="A3" s="1"/>
       <c r="B3" s="2"/>
       <c r="L3" s="4"/>
     </row>
-    <row r="4" spans="1:13" ht="30">
+    <row r="4" spans="1:13" ht="31.5">
       <c r="A4" s="1"/>
       <c r="B4" s="2"/>
       <c r="L4" s="4"/>
     </row>
-    <row r="5" spans="1:13" ht="40.799999999999997" thickBot="1">
+    <row r="5" spans="1:13" ht="42" thickBot="1">
       <c r="A5" s="5"/>
       <c r="B5" s="6"/>
       <c r="C5" s="5"/>
@@ -8819,50 +8521,50 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="30">
+    <row r="6" spans="1:13" ht="31.5">
       <c r="A6" s="1"/>
       <c r="B6" s="2"/>
       <c r="L6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="30">
+    <row r="7" spans="1:13" ht="31.5">
       <c r="B7" s="2"/>
       <c r="L7" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" ht="21">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="20.25">
       <c r="B8" s="2"/>
       <c r="L8" s="95">
         <v>44462</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="19.2">
+    <row r="9" spans="1:13" ht="17.25">
       <c r="A9" s="9"/>
       <c r="B9" s="2"/>
     </row>
-    <row r="10" spans="1:13" ht="19.2">
+    <row r="10" spans="1:13" ht="17.25">
       <c r="A10" s="9"/>
       <c r="B10" s="2"/>
     </row>
-    <row r="11" spans="1:13" ht="19.2">
+    <row r="11" spans="1:13" ht="17.25">
       <c r="A11" s="9"/>
       <c r="B11" s="2"/>
     </row>
-    <row r="12" spans="1:13" ht="21">
+    <row r="12" spans="1:13" ht="20.25">
       <c r="A12" s="9"/>
       <c r="B12" s="2"/>
       <c r="L12" s="10"/>
     </row>
-    <row r="13" spans="1:13" ht="25.2">
+    <row r="13" spans="1:13" ht="26.25">
       <c r="A13" s="9"/>
       <c r="B13" s="2"/>
       <c r="L13" s="11" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="21">
+    <row r="14" spans="1:13" ht="20.25">
       <c r="B14" s="12"/>
       <c r="I14" s="13"/>
       <c r="J14" s="13"/>
@@ -8870,7 +8572,7 @@
       <c r="L14" s="8"/>
       <c r="M14" s="14"/>
     </row>
-    <row r="15" spans="1:13" ht="21">
+    <row r="15" spans="1:13" ht="20.25">
       <c r="B15" s="12"/>
       <c r="I15" s="13"/>
       <c r="J15" s="13"/>
@@ -8878,13 +8580,13 @@
       <c r="L15" s="8"/>
       <c r="M15" s="14"/>
     </row>
-    <row r="16" spans="1:13" ht="21">
+    <row r="16" spans="1:13" ht="20.25">
       <c r="B16" s="12"/>
       <c r="F16" s="13"/>
       <c r="H16" s="13"/>
       <c r="J16" s="8"/>
     </row>
-    <row r="17" spans="1:12" ht="21">
+    <row r="17" spans="1:12" ht="20.25">
       <c r="B17" s="12"/>
       <c r="F17" s="13"/>
       <c r="H17" s="13"/>
@@ -8894,41 +8596,41 @@
       <c r="B18" s="15"/>
       <c r="H18" s="13"/>
     </row>
-    <row r="19" spans="1:12" ht="19.2">
+    <row r="19" spans="1:12" ht="17.25">
       <c r="B19" s="16"/>
       <c r="H19" s="15"/>
     </row>
-    <row r="20" spans="1:12" ht="19.2">
-      <c r="A20" s="108" t="s">
+    <row r="20" spans="1:12" ht="17.25">
+      <c r="A20" s="97" t="s">
         <v>3</v>
       </c>
-      <c r="B20" s="109"/>
-      <c r="C20" s="109"/>
-      <c r="D20" s="109"/>
-      <c r="E20" s="109"/>
-      <c r="F20" s="109"/>
-      <c r="G20" s="109"/>
-      <c r="H20" s="109"/>
-      <c r="I20" s="109"/>
-      <c r="J20" s="109"/>
-      <c r="K20" s="109"/>
-      <c r="L20" s="109"/>
+      <c r="B20" s="98"/>
+      <c r="C20" s="98"/>
+      <c r="D20" s="98"/>
+      <c r="E20" s="98"/>
+      <c r="F20" s="98"/>
+      <c r="G20" s="98"/>
+      <c r="H20" s="98"/>
+      <c r="I20" s="98"/>
+      <c r="J20" s="98"/>
+      <c r="K20" s="98"/>
+      <c r="L20" s="98"/>
     </row>
     <row r="21" spans="1:12">
-      <c r="A21" s="110" t="s">
+      <c r="A21" s="99" t="s">
         <v>4</v>
       </c>
-      <c r="B21" s="110"/>
-      <c r="C21" s="110"/>
-      <c r="D21" s="110"/>
-      <c r="E21" s="110"/>
-      <c r="F21" s="110"/>
-      <c r="G21" s="110"/>
-      <c r="H21" s="110"/>
-      <c r="I21" s="110"/>
-      <c r="J21" s="110"/>
-      <c r="K21" s="110"/>
-      <c r="L21" s="110"/>
+      <c r="B21" s="99"/>
+      <c r="C21" s="99"/>
+      <c r="D21" s="99"/>
+      <c r="E21" s="99"/>
+      <c r="F21" s="99"/>
+      <c r="G21" s="99"/>
+      <c r="H21" s="99"/>
+      <c r="I21" s="99"/>
+      <c r="J21" s="99"/>
+      <c r="K21" s="99"/>
+      <c r="L21" s="99"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -8951,27 +8653,27 @@
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="0.88671875" customWidth="1"/>
-    <col min="2" max="2" width="13.21875" customWidth="1"/>
-    <col min="3" max="3" width="14.77734375" customWidth="1"/>
+    <col min="1" max="1" width="0.875" customWidth="1"/>
+    <col min="2" max="2" width="13.25" customWidth="1"/>
+    <col min="3" max="3" width="14.75" customWidth="1"/>
     <col min="4" max="4" width="63" customWidth="1"/>
-    <col min="5" max="5" width="18.44140625" customWidth="1"/>
-    <col min="6" max="6" width="17.21875" customWidth="1"/>
+    <col min="5" max="5" width="18.5" customWidth="1"/>
+    <col min="6" max="6" width="17.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:12" ht="6" customHeight="1" thickBot="1"/>
     <row r="2" spans="2:12">
-      <c r="B2" s="111" t="s">
+      <c r="B2" s="100" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="112"/>
-      <c r="D2" s="112"/>
-      <c r="E2" s="112"/>
-      <c r="F2" s="113"/>
-    </row>
-    <row r="3" spans="2:12" ht="15" thickBot="1">
+      <c r="C2" s="101"/>
+      <c r="D2" s="101"/>
+      <c r="E2" s="101"/>
+      <c r="F2" s="102"/>
+    </row>
+    <row r="3" spans="2:12" ht="17.25" thickBot="1">
       <c r="B3" s="25" t="s">
         <v>6</v>
       </c>
@@ -8999,7 +8701,7 @@
         <v>13</v>
       </c>
       <c r="E4" s="23" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F4" s="24"/>
     </row>
@@ -9116,7 +8818,7 @@
       <c r="E20" s="18"/>
       <c r="F20" s="19"/>
     </row>
-    <row r="21" spans="2:6" ht="15" thickBot="1">
+    <row r="21" spans="2:6" ht="17.25" thickBot="1">
       <c r="B21" s="30"/>
       <c r="C21" s="31"/>
       <c r="D21" s="20"/>
@@ -9140,17 +8842,17 @@
   </sheetPr>
   <dimension ref="A1:R77"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScaleSheetLayoutView="120" zoomScalePageLayoutView="55" workbookViewId="0">
-      <selection activeCell="L36" sqref="L36"/>
+    <sheetView showGridLines="0" topLeftCell="A22" zoomScaleSheetLayoutView="120" zoomScalePageLayoutView="55" workbookViewId="0">
+      <selection activeCell="L31" sqref="L31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="5.44140625" defaultRowHeight="12"/>
+  <sheetFormatPr defaultColWidth="5.5" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="9" width="10.6640625" style="76" customWidth="1"/>
-    <col min="10" max="10" width="10.6640625" style="91" customWidth="1"/>
-    <col min="11" max="12" width="10.6640625" style="90" customWidth="1"/>
-    <col min="13" max="20" width="10.6640625" style="76" customWidth="1"/>
-    <col min="21" max="16384" width="5.44140625" style="76"/>
+    <col min="1" max="9" width="10.625" style="76" customWidth="1"/>
+    <col min="10" max="10" width="10.625" style="91" customWidth="1"/>
+    <col min="11" max="12" width="10.625" style="90" customWidth="1"/>
+    <col min="13" max="20" width="10.625" style="76" customWidth="1"/>
+    <col min="21" max="16384" width="5.5" style="76"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" s="72" customFormat="1" ht="15" customHeight="1">
@@ -9172,128 +8874,128 @@
       <c r="A2" s="73"/>
       <c r="B2" s="74"/>
       <c r="C2" s="65"/>
-      <c r="D2" s="116"/>
-      <c r="E2" s="116"/>
-      <c r="F2" s="116"/>
+      <c r="D2" s="110"/>
+      <c r="E2" s="110"/>
+      <c r="F2" s="110"/>
       <c r="G2" s="65"/>
       <c r="H2" s="65"/>
-      <c r="I2" s="115"/>
-      <c r="J2" s="115"/>
-      <c r="K2" s="117"/>
-      <c r="L2" s="117"/>
+      <c r="I2" s="109"/>
+      <c r="J2" s="109"/>
+      <c r="K2" s="111"/>
+      <c r="L2" s="111"/>
       <c r="M2" s="71"/>
     </row>
     <row r="3" spans="1:18" ht="15" customHeight="1">
       <c r="A3" s="73"/>
-      <c r="B3" s="118"/>
-      <c r="C3" s="118"/>
-      <c r="D3" s="118"/>
-      <c r="E3" s="118"/>
-      <c r="F3" s="118"/>
+      <c r="B3" s="108"/>
+      <c r="C3" s="108"/>
+      <c r="D3" s="108"/>
+      <c r="E3" s="108"/>
+      <c r="F3" s="108"/>
       <c r="G3" s="65"/>
       <c r="H3" s="75"/>
-      <c r="I3" s="115"/>
-      <c r="J3" s="115"/>
-      <c r="K3" s="119"/>
-      <c r="L3" s="119"/>
+      <c r="I3" s="109"/>
+      <c r="J3" s="109"/>
+      <c r="K3" s="112"/>
+      <c r="L3" s="112"/>
     </row>
     <row r="4" spans="1:18" ht="15" customHeight="1">
-      <c r="A4" s="115"/>
-      <c r="B4" s="115"/>
-      <c r="C4" s="115"/>
-      <c r="D4" s="115"/>
-      <c r="E4" s="115"/>
-      <c r="F4" s="115"/>
-      <c r="G4" s="115"/>
-      <c r="H4" s="115"/>
-      <c r="I4" s="114"/>
-      <c r="J4" s="114"/>
-      <c r="K4" s="114"/>
-      <c r="L4" s="114"/>
+      <c r="A4" s="109"/>
+      <c r="B4" s="109"/>
+      <c r="C4" s="109"/>
+      <c r="D4" s="109"/>
+      <c r="E4" s="109"/>
+      <c r="F4" s="109"/>
+      <c r="G4" s="109"/>
+      <c r="H4" s="109"/>
+      <c r="I4" s="104"/>
+      <c r="J4" s="104"/>
+      <c r="K4" s="104"/>
+      <c r="L4" s="104"/>
     </row>
     <row r="5" spans="1:18" ht="15" customHeight="1">
-      <c r="A5" s="115"/>
-      <c r="B5" s="115"/>
-      <c r="C5" s="115"/>
-      <c r="D5" s="115"/>
-      <c r="E5" s="115"/>
-      <c r="F5" s="115"/>
+      <c r="A5" s="109"/>
+      <c r="B5" s="109"/>
+      <c r="C5" s="109"/>
+      <c r="D5" s="109"/>
+      <c r="E5" s="109"/>
+      <c r="F5" s="109"/>
       <c r="G5" s="65"/>
       <c r="H5" s="65"/>
-      <c r="I5" s="114"/>
-      <c r="J5" s="114"/>
-      <c r="K5" s="114"/>
-      <c r="L5" s="114"/>
+      <c r="I5" s="104"/>
+      <c r="J5" s="104"/>
+      <c r="K5" s="104"/>
+      <c r="L5" s="104"/>
     </row>
     <row r="6" spans="1:18" ht="15" customHeight="1">
       <c r="A6" s="73"/>
       <c r="B6" s="77"/>
-      <c r="C6" s="122"/>
-      <c r="D6" s="123"/>
-      <c r="E6" s="122"/>
-      <c r="F6" s="123"/>
+      <c r="C6" s="106"/>
+      <c r="D6" s="107"/>
+      <c r="E6" s="106"/>
+      <c r="F6" s="107"/>
       <c r="G6" s="78"/>
       <c r="H6" s="78"/>
-      <c r="I6" s="118"/>
-      <c r="J6" s="118"/>
-      <c r="K6" s="118"/>
-      <c r="L6" s="118"/>
+      <c r="I6" s="108"/>
+      <c r="J6" s="108"/>
+      <c r="K6" s="108"/>
+      <c r="L6" s="108"/>
     </row>
     <row r="7" spans="1:18" ht="15" customHeight="1">
       <c r="A7" s="73"/>
       <c r="B7" s="77"/>
-      <c r="C7" s="122"/>
-      <c r="D7" s="123"/>
-      <c r="E7" s="122"/>
-      <c r="F7" s="123"/>
+      <c r="C7" s="106"/>
+      <c r="D7" s="107"/>
+      <c r="E7" s="106"/>
+      <c r="F7" s="107"/>
       <c r="G7" s="78"/>
       <c r="H7" s="78"/>
-      <c r="I7" s="118"/>
-      <c r="J7" s="118"/>
-      <c r="K7" s="118"/>
-      <c r="L7" s="118"/>
+      <c r="I7" s="108"/>
+      <c r="J7" s="108"/>
+      <c r="K7" s="108"/>
+      <c r="L7" s="108"/>
     </row>
     <row r="8" spans="1:18" ht="15" customHeight="1">
       <c r="A8" s="73"/>
-      <c r="B8" s="120"/>
-      <c r="C8" s="120"/>
-      <c r="D8" s="120"/>
-      <c r="E8" s="120"/>
-      <c r="F8" s="120"/>
-      <c r="G8" s="120"/>
-      <c r="H8" s="120"/>
-      <c r="I8" s="120"/>
-      <c r="J8" s="120"/>
-      <c r="K8" s="120"/>
-      <c r="L8" s="120"/>
+      <c r="B8" s="103"/>
+      <c r="C8" s="103"/>
+      <c r="D8" s="103"/>
+      <c r="E8" s="103"/>
+      <c r="F8" s="103"/>
+      <c r="G8" s="103"/>
+      <c r="H8" s="103"/>
+      <c r="I8" s="103"/>
+      <c r="J8" s="103"/>
+      <c r="K8" s="103"/>
+      <c r="L8" s="103"/>
     </row>
     <row r="9" spans="1:18" ht="15" customHeight="1">
       <c r="A9" s="73"/>
-      <c r="B9" s="120"/>
-      <c r="C9" s="120"/>
-      <c r="D9" s="120"/>
-      <c r="E9" s="120"/>
-      <c r="F9" s="120"/>
-      <c r="G9" s="120"/>
-      <c r="H9" s="120"/>
-      <c r="I9" s="120"/>
-      <c r="J9" s="120"/>
-      <c r="K9" s="120"/>
-      <c r="L9" s="120"/>
+      <c r="B9" s="103"/>
+      <c r="C9" s="103"/>
+      <c r="D9" s="103"/>
+      <c r="E9" s="103"/>
+      <c r="F9" s="103"/>
+      <c r="G9" s="103"/>
+      <c r="H9" s="103"/>
+      <c r="I9" s="103"/>
+      <c r="J9" s="103"/>
+      <c r="K9" s="103"/>
+      <c r="L9" s="103"/>
     </row>
     <row r="10" spans="1:18" ht="15" customHeight="1">
-      <c r="A10" s="114"/>
-      <c r="B10" s="114"/>
-      <c r="C10" s="114"/>
-      <c r="D10" s="114"/>
-      <c r="E10" s="114"/>
-      <c r="F10" s="114"/>
-      <c r="G10" s="121"/>
-      <c r="H10" s="121"/>
-      <c r="I10" s="121"/>
-      <c r="J10" s="121"/>
-      <c r="K10" s="121"/>
-      <c r="L10" s="121"/>
+      <c r="A10" s="104"/>
+      <c r="B10" s="104"/>
+      <c r="C10" s="104"/>
+      <c r="D10" s="104"/>
+      <c r="E10" s="104"/>
+      <c r="F10" s="104"/>
+      <c r="G10" s="105"/>
+      <c r="H10" s="105"/>
+      <c r="I10" s="105"/>
+      <c r="J10" s="105"/>
+      <c r="K10" s="105"/>
+      <c r="L10" s="105"/>
     </row>
     <row r="11" spans="1:18" ht="15" customHeight="1">
       <c r="A11" s="79"/>
@@ -10005,6 +9707,20 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="K4:L5"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:J5"/>
     <mergeCell ref="B8:L8"/>
     <mergeCell ref="B9:L9"/>
     <mergeCell ref="A10:F10"/>
@@ -10017,20 +9733,6 @@
     <mergeCell ref="E7:F7"/>
     <mergeCell ref="I7:J7"/>
     <mergeCell ref="K7:L7"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="I4:J5"/>
-    <mergeCell ref="K4:L5"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="K3:L3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
@@ -10057,7 +9759,7 @@
       <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10072,26 +9774,26 @@
   </sheetPr>
   <dimension ref="A1:R31"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A10" zoomScaleSheetLayoutView="120" zoomScalePageLayoutView="55" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8:L8"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleSheetLayoutView="120" zoomScalePageLayoutView="55" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="5.44140625" defaultRowHeight="12"/>
+  <sheetFormatPr defaultColWidth="5.5" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="1" width="32.109375" style="48" customWidth="1"/>
-    <col min="2" max="2" width="56.5546875" style="48" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.33203125" style="48" customWidth="1"/>
-    <col min="4" max="4" width="4.88671875" style="48" customWidth="1"/>
-    <col min="5" max="5" width="5.109375" style="48" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="48" customWidth="1"/>
-    <col min="7" max="7" width="39.109375" style="48" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="28.77734375" style="48" customWidth="1"/>
-    <col min="9" max="9" width="13.109375" style="48" customWidth="1"/>
-    <col min="10" max="10" width="5.88671875" style="63" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.21875" style="64" customWidth="1"/>
-    <col min="12" max="12" width="23.88671875" style="64" customWidth="1"/>
+    <col min="1" max="1" width="32.125" style="48" customWidth="1"/>
+    <col min="2" max="2" width="56.5" style="48" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.375" style="48" customWidth="1"/>
+    <col min="4" max="4" width="4.875" style="48" customWidth="1"/>
+    <col min="5" max="5" width="5.125" style="48" customWidth="1"/>
+    <col min="6" max="6" width="12.625" style="48" customWidth="1"/>
+    <col min="7" max="7" width="39.125" style="48" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="28.75" style="48" customWidth="1"/>
+    <col min="9" max="9" width="13.125" style="48" customWidth="1"/>
+    <col min="10" max="10" width="5.875" style="63" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.25" style="64" customWidth="1"/>
+    <col min="12" max="12" width="23.875" style="64" customWidth="1"/>
     <col min="13" max="18" width="0" style="48" hidden="1" customWidth="1"/>
-    <col min="19" max="16384" width="5.44140625" style="48"/>
+    <col min="19" max="16384" width="5.5" style="48"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" s="40" customFormat="1" ht="16.5" customHeight="1">
@@ -10107,300 +9809,300 @@
       <c r="J1" s="35"/>
       <c r="K1" s="39"/>
       <c r="L1" s="39" t="s">
-        <v>104</v>
+        <v>15</v>
       </c>
       <c r="M1" s="39" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:18" s="40" customFormat="1" ht="16.5" customHeight="1">
       <c r="A2" s="41" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B2" s="42" t="s">
-        <v>62</v>
+        <v>102</v>
       </c>
       <c r="C2" s="43" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" s="129" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="134" t="s">
         <v>71</v>
       </c>
-      <c r="E2" s="129"/>
-      <c r="F2" s="129"/>
+      <c r="E2" s="134"/>
+      <c r="F2" s="134"/>
       <c r="G2" s="44" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H2" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="I2" s="130" t="s">
-        <v>19</v>
-      </c>
-      <c r="J2" s="131"/>
-      <c r="K2" s="132" t="s">
+      <c r="I2" s="128" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" s="129"/>
+      <c r="K2" s="135" t="s">
         <v>71</v>
       </c>
-      <c r="L2" s="133"/>
+      <c r="L2" s="136"/>
       <c r="M2" s="46"/>
     </row>
     <row r="3" spans="1:18" ht="15.75" customHeight="1">
       <c r="A3" s="41" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" s="134" t="s">
-        <v>105</v>
-      </c>
-      <c r="C3" s="134"/>
-      <c r="D3" s="134"/>
-      <c r="E3" s="134"/>
-      <c r="F3" s="134"/>
+        <v>21</v>
+      </c>
+      <c r="B3" s="137" t="s">
+        <v>60</v>
+      </c>
+      <c r="C3" s="137"/>
+      <c r="D3" s="137"/>
+      <c r="E3" s="137"/>
+      <c r="F3" s="137"/>
       <c r="G3" s="44" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H3" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="130" t="s">
-        <v>22</v>
-      </c>
-      <c r="J3" s="131"/>
-      <c r="K3" s="135" t="s">
-        <v>63</v>
-      </c>
-      <c r="L3" s="136"/>
+      <c r="I3" s="128" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" s="129"/>
+      <c r="K3" s="138" t="s">
+        <v>64</v>
+      </c>
+      <c r="L3" s="139"/>
     </row>
     <row r="4" spans="1:18">
-      <c r="A4" s="137" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4" s="137" t="s">
+      <c r="A4" s="125" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="128" t="s">
+      <c r="B4" s="125" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="128"/>
-      <c r="E4" s="128"/>
-      <c r="F4" s="128"/>
-      <c r="G4" s="130" t="s">
+      <c r="C4" s="127" t="s">
         <v>26</v>
       </c>
-      <c r="H4" s="131"/>
-      <c r="I4" s="124" t="s">
+      <c r="D4" s="127"/>
+      <c r="E4" s="127"/>
+      <c r="F4" s="127"/>
+      <c r="G4" s="128" t="s">
         <v>27</v>
       </c>
-      <c r="J4" s="125"/>
-      <c r="K4" s="124" t="s">
+      <c r="H4" s="129"/>
+      <c r="I4" s="130" t="s">
         <v>28</v>
       </c>
-      <c r="L4" s="125"/>
+      <c r="J4" s="131"/>
+      <c r="K4" s="130" t="s">
+        <v>29</v>
+      </c>
+      <c r="L4" s="131"/>
     </row>
     <row r="5" spans="1:18">
-      <c r="A5" s="138"/>
-      <c r="B5" s="138"/>
-      <c r="C5" s="128" t="s">
-        <v>29</v>
-      </c>
-      <c r="D5" s="128"/>
-      <c r="E5" s="128" t="s">
+      <c r="A5" s="126"/>
+      <c r="B5" s="126"/>
+      <c r="C5" s="127" t="s">
         <v>30</v>
       </c>
-      <c r="F5" s="128"/>
+      <c r="D5" s="127"/>
+      <c r="E5" s="127" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5" s="127"/>
       <c r="G5" s="44" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H5" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="I5" s="126"/>
-      <c r="J5" s="127"/>
-      <c r="K5" s="126"/>
-      <c r="L5" s="127"/>
+        <v>33</v>
+      </c>
+      <c r="I5" s="132"/>
+      <c r="J5" s="133"/>
+      <c r="K5" s="132"/>
+      <c r="L5" s="133"/>
     </row>
     <row r="6" spans="1:18" ht="16.5" customHeight="1">
       <c r="A6" s="41" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B6" s="49" t="s">
-        <v>34</v>
-      </c>
-      <c r="C6" s="143" t="s">
         <v>35</v>
       </c>
-      <c r="D6" s="144"/>
-      <c r="E6" s="145" t="s">
-        <v>52</v>
-      </c>
-      <c r="F6" s="146"/>
+      <c r="C6" s="117" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" s="118"/>
+      <c r="E6" s="119" t="s">
+        <v>53</v>
+      </c>
+      <c r="F6" s="120"/>
       <c r="G6" s="50"/>
       <c r="H6" s="50"/>
-      <c r="I6" s="147"/>
-      <c r="J6" s="148"/>
-      <c r="K6" s="149"/>
-      <c r="L6" s="150"/>
+      <c r="I6" s="121"/>
+      <c r="J6" s="122"/>
+      <c r="K6" s="123"/>
+      <c r="L6" s="124"/>
     </row>
     <row r="7" spans="1:18" ht="16.5" customHeight="1">
       <c r="A7" s="41" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" s="49" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" s="117" t="s">
         <v>36</v>
       </c>
-      <c r="B7" s="49" t="s">
-        <v>34</v>
-      </c>
-      <c r="C7" s="143" t="s">
-        <v>35</v>
-      </c>
-      <c r="D7" s="144"/>
-      <c r="E7" s="143" t="s">
-        <v>53</v>
-      </c>
-      <c r="F7" s="144"/>
+      <c r="D7" s="118"/>
+      <c r="E7" s="117" t="s">
+        <v>54</v>
+      </c>
+      <c r="F7" s="118"/>
       <c r="G7" s="50"/>
       <c r="H7" s="50"/>
-      <c r="I7" s="149"/>
-      <c r="J7" s="150"/>
-      <c r="K7" s="149"/>
-      <c r="L7" s="150"/>
+      <c r="I7" s="123"/>
+      <c r="J7" s="124"/>
+      <c r="K7" s="123"/>
+      <c r="L7" s="124"/>
     </row>
     <row r="8" spans="1:18" ht="111.75" customHeight="1">
       <c r="A8" s="41" t="s">
-        <v>37</v>
-      </c>
-      <c r="B8" s="139" t="s">
-        <v>106</v>
-      </c>
-      <c r="C8" s="139"/>
-      <c r="D8" s="139"/>
-      <c r="E8" s="139"/>
-      <c r="F8" s="139"/>
-      <c r="G8" s="139"/>
-      <c r="H8" s="139"/>
-      <c r="I8" s="139"/>
-      <c r="J8" s="139"/>
-      <c r="K8" s="139"/>
-      <c r="L8" s="139"/>
+        <v>38</v>
+      </c>
+      <c r="B8" s="113" t="s">
+        <v>72</v>
+      </c>
+      <c r="C8" s="113"/>
+      <c r="D8" s="113"/>
+      <c r="E8" s="113"/>
+      <c r="F8" s="113"/>
+      <c r="G8" s="113"/>
+      <c r="H8" s="113"/>
+      <c r="I8" s="113"/>
+      <c r="J8" s="113"/>
+      <c r="K8" s="113"/>
+      <c r="L8" s="113"/>
     </row>
     <row r="9" spans="1:18" ht="111.75" customHeight="1">
       <c r="A9" s="41" t="s">
-        <v>38</v>
-      </c>
-      <c r="B9" s="140"/>
-      <c r="C9" s="140"/>
-      <c r="D9" s="140"/>
-      <c r="E9" s="140"/>
-      <c r="F9" s="140"/>
-      <c r="G9" s="140"/>
-      <c r="H9" s="140"/>
-      <c r="I9" s="140"/>
-      <c r="J9" s="140"/>
-      <c r="K9" s="140"/>
-      <c r="L9" s="140"/>
-    </row>
-    <row r="10" spans="1:18" ht="12.6" thickBot="1">
-      <c r="A10" s="141" t="s">
-        <v>33</v>
-      </c>
-      <c r="B10" s="141"/>
-      <c r="C10" s="141"/>
-      <c r="D10" s="141"/>
-      <c r="E10" s="141"/>
-      <c r="F10" s="141"/>
-      <c r="G10" s="142" t="s">
-        <v>36</v>
-      </c>
-      <c r="H10" s="142"/>
-      <c r="I10" s="142"/>
-      <c r="J10" s="142"/>
-      <c r="K10" s="142"/>
-      <c r="L10" s="142"/>
-    </row>
-    <row r="11" spans="1:18" ht="39.6">
+        <v>39</v>
+      </c>
+      <c r="B9" s="114"/>
+      <c r="C9" s="114"/>
+      <c r="D9" s="114"/>
+      <c r="E9" s="114"/>
+      <c r="F9" s="114"/>
+      <c r="G9" s="114"/>
+      <c r="H9" s="114"/>
+      <c r="I9" s="114"/>
+      <c r="J9" s="114"/>
+      <c r="K9" s="114"/>
+      <c r="L9" s="114"/>
+    </row>
+    <row r="10" spans="1:18" ht="12.75" thickBot="1">
+      <c r="A10" s="115" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" s="115"/>
+      <c r="C10" s="115"/>
+      <c r="D10" s="115"/>
+      <c r="E10" s="115"/>
+      <c r="F10" s="115"/>
+      <c r="G10" s="116" t="s">
+        <v>37</v>
+      </c>
+      <c r="H10" s="116"/>
+      <c r="I10" s="116"/>
+      <c r="J10" s="116"/>
+      <c r="K10" s="116"/>
+      <c r="L10" s="116"/>
+    </row>
+    <row r="11" spans="1:18" ht="37.5">
       <c r="A11" s="51" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B11" s="51" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" s="51" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="51" t="s">
+        <v>42</v>
+      </c>
+      <c r="E11" s="51" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" s="51" t="s">
+        <v>44</v>
+      </c>
+      <c r="G11" s="52" t="s">
+        <v>41</v>
+      </c>
+      <c r="H11" s="52" t="s">
         <v>40</v>
       </c>
-      <c r="C11" s="51" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" s="51" t="s">
-        <v>41</v>
-      </c>
-      <c r="E11" s="51" t="s">
+      <c r="I11" s="52" t="s">
+        <v>24</v>
+      </c>
+      <c r="J11" s="52" t="s">
         <v>42</v>
       </c>
-      <c r="F11" s="51" t="s">
+      <c r="K11" s="52" t="s">
         <v>43</v>
       </c>
-      <c r="G11" s="52" t="s">
-        <v>40</v>
-      </c>
-      <c r="H11" s="52" t="s">
-        <v>39</v>
-      </c>
-      <c r="I11" s="52" t="s">
-        <v>23</v>
-      </c>
-      <c r="J11" s="52" t="s">
-        <v>41</v>
-      </c>
-      <c r="K11" s="52" t="s">
-        <v>42</v>
-      </c>
       <c r="L11" s="52" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="M11" s="53" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="N11" s="53" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="O11" s="54" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="P11" s="54" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Q11" s="54" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="R11" s="54" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" ht="13.8">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" ht="13.5">
       <c r="A12" s="32" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B12" s="92" t="s">
+        <v>59</v>
+      </c>
+      <c r="C12" s="32" t="s">
         <v>58</v>
       </c>
-      <c r="C12" s="32" t="s">
-        <v>57</v>
-      </c>
       <c r="D12" s="56" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E12" s="93" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F12" s="57"/>
       <c r="G12" s="92" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H12" s="55" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="I12" s="32" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J12" s="56" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K12" s="93" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L12" s="58"/>
       <c r="M12" s="59"/>
@@ -10410,33 +10112,33 @@
       <c r="Q12" s="61"/>
       <c r="R12" s="61"/>
     </row>
-    <row r="13" spans="1:18" ht="13.8">
+    <row r="13" spans="1:18" ht="13.5">
       <c r="A13" s="92" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B13" s="92" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C13" s="33" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D13" s="56"/>
       <c r="E13" s="94" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F13" s="57"/>
       <c r="G13" s="92" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H13" s="92" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I13" s="33" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="J13" s="56"/>
       <c r="K13" s="94" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L13" s="58"/>
       <c r="M13" s="59"/>
@@ -10446,27 +10148,27 @@
       <c r="Q13" s="61"/>
       <c r="R13" s="61"/>
     </row>
-    <row r="14" spans="1:18" ht="13.8">
+    <row r="14" spans="1:18" ht="13.5">
       <c r="A14" s="92" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B14" s="92" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C14" s="33" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D14" s="56"/>
       <c r="E14" s="94"/>
       <c r="F14" s="57"/>
       <c r="G14" s="92" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H14" s="92" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I14" s="33" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="J14" s="56"/>
       <c r="K14" s="94"/>
@@ -10478,27 +10180,27 @@
       <c r="Q14" s="61"/>
       <c r="R14" s="61"/>
     </row>
-    <row r="15" spans="1:18" ht="13.8">
+    <row r="15" spans="1:18" ht="13.5">
       <c r="A15" s="92" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B15" s="92" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C15" s="33" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D15" s="56"/>
       <c r="E15" s="94"/>
       <c r="F15" s="57"/>
       <c r="G15" s="92" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H15" s="92" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I15" s="33" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="J15" s="56"/>
       <c r="K15" s="94"/>
@@ -10510,27 +10212,27 @@
       <c r="Q15" s="61"/>
       <c r="R15" s="61"/>
     </row>
-    <row r="16" spans="1:18" ht="13.8">
+    <row r="16" spans="1:18" ht="13.5">
       <c r="A16" s="92" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B16" s="92" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C16" s="33" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D16" s="56"/>
       <c r="E16" s="94"/>
       <c r="F16" s="57"/>
       <c r="G16" s="92" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H16" s="92" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I16" s="33" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="J16" s="56"/>
       <c r="K16" s="94"/>
@@ -10542,27 +10244,27 @@
       <c r="Q16" s="61"/>
       <c r="R16" s="61"/>
     </row>
-    <row r="17" spans="1:18" ht="13.8">
+    <row r="17" spans="1:18" ht="13.5">
       <c r="A17" s="92" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B17" s="92" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C17" s="33" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D17" s="56"/>
       <c r="E17" s="94"/>
       <c r="F17" s="57"/>
       <c r="G17" s="92" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H17" s="92" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I17" s="33" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="J17" s="56"/>
       <c r="K17" s="94"/>
@@ -10574,91 +10276,87 @@
       <c r="Q17" s="61"/>
       <c r="R17" s="61"/>
     </row>
-    <row r="18" spans="1:18" ht="13.8">
+    <row r="18" spans="1:18" ht="13.5">
       <c r="A18" s="92" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B18" s="92" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C18" s="92" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D18" s="92"/>
       <c r="E18" s="92"/>
       <c r="F18" s="92"/>
       <c r="G18" s="92" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H18" s="92" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I18" s="92" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="J18" s="92"/>
       <c r="K18" s="92"/>
       <c r="L18" s="92"/>
     </row>
-    <row r="19" spans="1:18" ht="13.8">
+    <row r="19" spans="1:18" ht="13.5">
       <c r="A19" s="92" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B19" s="92" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C19" s="92" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D19" s="92"/>
       <c r="E19" s="92"/>
       <c r="F19" s="92"/>
       <c r="G19" s="92" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H19" s="92" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I19" s="92" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="J19" s="92"/>
       <c r="K19" s="92"/>
       <c r="L19" s="92"/>
     </row>
-    <row r="20" spans="1:18" ht="13.8">
+    <row r="20" spans="1:18" ht="13.5">
       <c r="A20" s="92" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B20" s="92" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C20" s="33" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D20" s="92"/>
       <c r="E20" s="92"/>
       <c r="F20" s="92"/>
       <c r="G20" s="92" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H20" s="92" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I20" s="92" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="J20" s="92"/>
       <c r="K20" s="92"/>
       <c r="L20" s="92"/>
     </row>
-    <row r="21" spans="1:18" ht="13.8">
-      <c r="A21" s="92" t="s">
-        <v>59</v>
-      </c>
-      <c r="B21" s="92" t="s">
-        <v>101</v>
-      </c>
+    <row r="21" spans="1:18" ht="13.5">
+      <c r="A21" s="92"/>
+      <c r="B21" s="92"/>
       <c r="C21" s="92" t="s">
         <v>68</v>
       </c>
@@ -10666,10 +10364,10 @@
       <c r="E21" s="92"/>
       <c r="F21" s="92"/>
       <c r="G21" s="92" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H21" s="92" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="I21" s="92" t="s">
         <v>68</v>
@@ -10678,13 +10376,9 @@
       <c r="K21" s="92"/>
       <c r="L21" s="92"/>
     </row>
-    <row r="22" spans="1:18" ht="13.8">
-      <c r="A22" s="92" t="s">
-        <v>60</v>
-      </c>
-      <c r="B22" s="92" t="s">
-        <v>102</v>
-      </c>
+    <row r="22" spans="1:18" ht="13.5">
+      <c r="A22" s="92"/>
+      <c r="B22" s="92"/>
       <c r="C22" s="92" t="s">
         <v>69</v>
       </c>
@@ -10692,10 +10386,10 @@
       <c r="E22" s="92"/>
       <c r="F22" s="92"/>
       <c r="G22" s="92" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H22" s="92" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="I22" s="92" t="s">
         <v>69</v>
@@ -10704,13 +10398,9 @@
       <c r="K22" s="92"/>
       <c r="L22" s="92"/>
     </row>
-    <row r="23" spans="1:18" ht="13.8">
-      <c r="A23" s="92" t="s">
-        <v>61</v>
-      </c>
-      <c r="B23" s="92" t="s">
-        <v>103</v>
-      </c>
+    <row r="23" spans="1:18" ht="13.5">
+      <c r="A23" s="92"/>
+      <c r="B23" s="92"/>
       <c r="C23" s="92" t="s">
         <v>70</v>
       </c>
@@ -10718,10 +10408,10 @@
       <c r="E23" s="92"/>
       <c r="F23" s="92"/>
       <c r="G23" s="92" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H23" s="92" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="I23" s="92" t="s">
         <v>70</v>
@@ -10730,7 +10420,7 @@
       <c r="K23" s="92"/>
       <c r="L23" s="92"/>
     </row>
-    <row r="24" spans="1:18" ht="13.8">
+    <row r="24" spans="1:18" ht="13.5">
       <c r="A24" s="92"/>
       <c r="B24" s="92"/>
       <c r="C24" s="92"/>
@@ -10744,7 +10434,7 @@
       <c r="K24" s="92"/>
       <c r="L24" s="92"/>
     </row>
-    <row r="25" spans="1:18" ht="13.8">
+    <row r="25" spans="1:18" ht="13.5">
       <c r="A25" s="92"/>
       <c r="B25" s="92"/>
       <c r="C25" s="92"/>
@@ -10758,7 +10448,7 @@
       <c r="K25" s="92"/>
       <c r="L25" s="92"/>
     </row>
-    <row r="26" spans="1:18" ht="13.8">
+    <row r="26" spans="1:18" ht="13.5">
       <c r="A26" s="92"/>
       <c r="B26" s="92"/>
       <c r="C26" s="92"/>
@@ -10772,7 +10462,7 @@
       <c r="K26" s="92"/>
       <c r="L26" s="92"/>
     </row>
-    <row r="27" spans="1:18" ht="13.8">
+    <row r="27" spans="1:18" ht="13.5">
       <c r="A27" s="92"/>
       <c r="B27" s="92"/>
       <c r="C27" s="92"/>
@@ -10786,7 +10476,7 @@
       <c r="K27" s="92"/>
       <c r="L27" s="92"/>
     </row>
-    <row r="28" spans="1:18" ht="13.8">
+    <row r="28" spans="1:18" ht="13.5">
       <c r="A28" s="92"/>
       <c r="B28" s="92"/>
       <c r="C28" s="92"/>
@@ -10800,7 +10490,7 @@
       <c r="K28" s="92"/>
       <c r="L28" s="92"/>
     </row>
-    <row r="29" spans="1:18" ht="13.8">
+    <row r="29" spans="1:18" ht="13.5">
       <c r="A29" s="92"/>
       <c r="B29" s="92"/>
       <c r="C29" s="92"/>
@@ -10814,7 +10504,7 @@
       <c r="K29" s="92"/>
       <c r="L29" s="92"/>
     </row>
-    <row r="30" spans="1:18" ht="13.8">
+    <row r="30" spans="1:18" ht="13.5">
       <c r="A30" s="92"/>
       <c r="B30" s="92"/>
       <c r="C30" s="92"/>
@@ -10828,7 +10518,7 @@
       <c r="K30" s="92"/>
       <c r="L30" s="92"/>
     </row>
-    <row r="31" spans="1:18" ht="13.8">
+    <row r="31" spans="1:18" ht="13.5">
       <c r="A31" s="92"/>
       <c r="B31" s="92"/>
       <c r="C31" s="92"/>
@@ -10844,6 +10534,20 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="K4:L5"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:J5"/>
     <mergeCell ref="B8:L8"/>
     <mergeCell ref="B9:L9"/>
     <mergeCell ref="A10:F10"/>
@@ -10856,20 +10560,6 @@
     <mergeCell ref="E7:F7"/>
     <mergeCell ref="I7:J7"/>
     <mergeCell ref="K7:L7"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="I4:J5"/>
-    <mergeCell ref="K4:L5"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="K3:L3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
@@ -10886,204 +10576,4 @@
   <drawing r:id="rId2"/>
   <legacyDrawingHF r:id="rId3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF2A1437-1857-4626-81A1-33530EF0A9DA}">
-  <dimension ref="A1:G18"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I18" sqref="I17:I18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
-  <cols>
-    <col min="1" max="7" width="22.77734375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" ht="15" thickBot="1"/>
-    <row r="2" spans="1:7">
-      <c r="A2" s="97" t="s">
-        <v>107</v>
-      </c>
-      <c r="B2" s="98" t="s">
-        <v>108</v>
-      </c>
-      <c r="C2" s="98" t="s">
-        <v>109</v>
-      </c>
-      <c r="D2" s="98" t="s">
-        <v>110</v>
-      </c>
-      <c r="E2" s="98" t="s">
-        <v>111</v>
-      </c>
-      <c r="F2" s="98" t="s">
-        <v>112</v>
-      </c>
-      <c r="G2" s="99" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="55.2">
-      <c r="A3" s="100" t="s">
-        <v>114</v>
-      </c>
-      <c r="B3" s="101" t="s">
-        <v>115</v>
-      </c>
-      <c r="C3" s="101" t="s">
-        <v>116</v>
-      </c>
-      <c r="D3" s="101" t="s">
-        <v>117</v>
-      </c>
-      <c r="E3" s="101" t="s">
-        <v>118</v>
-      </c>
-      <c r="F3" s="101" t="s">
-        <v>119</v>
-      </c>
-      <c r="G3" s="102" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="100"/>
-      <c r="B4" s="101"/>
-      <c r="C4" s="101"/>
-      <c r="D4" s="101"/>
-      <c r="E4" s="101"/>
-      <c r="F4" s="101"/>
-      <c r="G4" s="102"/>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="100"/>
-      <c r="B5" s="101"/>
-      <c r="C5" s="101"/>
-      <c r="D5" s="101"/>
-      <c r="E5" s="101"/>
-      <c r="F5" s="101"/>
-      <c r="G5" s="102"/>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="103"/>
-      <c r="B6" s="92"/>
-      <c r="C6" s="92"/>
-      <c r="D6" s="92"/>
-      <c r="E6" s="101"/>
-      <c r="F6" s="92"/>
-      <c r="G6" s="102"/>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="103"/>
-      <c r="B7" s="92"/>
-      <c r="C7" s="92"/>
-      <c r="D7" s="101"/>
-      <c r="E7" s="101"/>
-      <c r="F7" s="101"/>
-      <c r="G7" s="102"/>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="103"/>
-      <c r="B8" s="92"/>
-      <c r="C8" s="92"/>
-      <c r="D8" s="92"/>
-      <c r="E8" s="92"/>
-      <c r="F8" s="92"/>
-      <c r="G8" s="104"/>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="103"/>
-      <c r="B9" s="92"/>
-      <c r="C9" s="92"/>
-      <c r="D9" s="92"/>
-      <c r="E9" s="92"/>
-      <c r="F9" s="92"/>
-      <c r="G9" s="104"/>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="103"/>
-      <c r="B10" s="92"/>
-      <c r="C10" s="92"/>
-      <c r="D10" s="92"/>
-      <c r="E10" s="92"/>
-      <c r="F10" s="92"/>
-      <c r="G10" s="104"/>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="103"/>
-      <c r="B11" s="92"/>
-      <c r="C11" s="92"/>
-      <c r="D11" s="92"/>
-      <c r="E11" s="92"/>
-      <c r="F11" s="92"/>
-      <c r="G11" s="104"/>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="103"/>
-      <c r="B12" s="92"/>
-      <c r="C12" s="92"/>
-      <c r="D12" s="92"/>
-      <c r="E12" s="92"/>
-      <c r="F12" s="92"/>
-      <c r="G12" s="104"/>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="103"/>
-      <c r="B13" s="92"/>
-      <c r="C13" s="92"/>
-      <c r="D13" s="92"/>
-      <c r="E13" s="92"/>
-      <c r="F13" s="92"/>
-      <c r="G13" s="104"/>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="103"/>
-      <c r="B14" s="92"/>
-      <c r="C14" s="92"/>
-      <c r="D14" s="92"/>
-      <c r="E14" s="92"/>
-      <c r="F14" s="92"/>
-      <c r="G14" s="104"/>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="103"/>
-      <c r="B15" s="92"/>
-      <c r="C15" s="92"/>
-      <c r="D15" s="92"/>
-      <c r="E15" s="92"/>
-      <c r="F15" s="92"/>
-      <c r="G15" s="104"/>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="103"/>
-      <c r="B16" s="92"/>
-      <c r="C16" s="92"/>
-      <c r="D16" s="92"/>
-      <c r="E16" s="92"/>
-      <c r="F16" s="92"/>
-      <c r="G16" s="104"/>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="103"/>
-      <c r="B17" s="92"/>
-      <c r="C17" s="92"/>
-      <c r="D17" s="92"/>
-      <c r="E17" s="92"/>
-      <c r="F17" s="92"/>
-      <c r="G17" s="104"/>
-    </row>
-    <row r="18" spans="1:7" ht="15" thickBot="1">
-      <c r="A18" s="105"/>
-      <c r="B18" s="106"/>
-      <c r="C18" s="106"/>
-      <c r="D18" s="106"/>
-      <c r="E18" s="106"/>
-      <c r="F18" s="106"/>
-      <c r="G18" s="107"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>